--- a/data/raw/data_enviroment_worldclim.xlsx
+++ b/data/raw/data_enviroment_worldclim.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="194">
   <si>
     <t>PLOT</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>P. macroloba</t>
-  </si>
-  <si>
-    <t>Zayra Ramos/0.25 ha/temporal</t>
   </si>
   <si>
     <t>F10P2</t>
@@ -149,9 +146,6 @@
   </si>
   <si>
     <t>F30P1</t>
-  </si>
-  <si>
-    <t>Steven Sesnie/ 0.25 ha/temporal</t>
   </si>
   <si>
     <t>F30P2</t>
@@ -992,7 +986,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1017,16 +1011,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1034,45 +1028,45 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1080,13 +1074,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1094,13 +1088,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1108,13 +1102,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1125,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1133,13 +1127,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1147,13 +1141,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1161,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1175,13 +1169,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1189,71 +1183,71 @@
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1261,13 +1255,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" t="s">
         <v>178</v>
-      </c>
-      <c r="D19" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1275,13 +1269,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" t="s">
         <v>178</v>
-      </c>
-      <c r="D20" t="s">
-        <v>180</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1291,13 +1285,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1305,13 +1299,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1319,13 +1313,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
         <v>183</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1333,13 +1327,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
         <v>184</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1347,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -50439,8 +50433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -50455,8 +50449,8 @@
     <col min="13" max="13" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="5" customWidth="1"/>
     <col min="18" max="18" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -50472,13 +50466,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -50508,16 +50502,16 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>10</v>
@@ -50537,9 +50531,7 @@
       <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
@@ -50611,13 +50603,11 @@
       <c r="W2" s="6">
         <v>675</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -50685,13 +50675,11 @@
       <c r="W3" s="6">
         <v>660</v>
       </c>
-      <c r="X3" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -50759,13 +50747,11 @@
       <c r="W4" s="6">
         <v>665</v>
       </c>
-      <c r="X4" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X4" s="6"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -50833,16 +50819,14 @@
       <c r="W5" s="6">
         <v>665</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="6">
         <v>479984.14299299999</v>
@@ -50907,16 +50891,14 @@
       <c r="W6" s="6">
         <v>649</v>
       </c>
-      <c r="X6" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X6" s="6"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6">
         <v>480002.01571599999</v>
@@ -50981,16 +50963,14 @@
       <c r="W7" s="6">
         <v>655</v>
       </c>
-      <c r="X7" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X7" s="6"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6">
         <v>479300.99759099999</v>
@@ -51055,16 +51035,14 @@
       <c r="W8" s="6">
         <v>634</v>
       </c>
-      <c r="X8" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X8" s="6"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>480399.75927600003</v>
@@ -51129,13 +51107,11 @@
       <c r="W9" s="6">
         <v>656</v>
       </c>
-      <c r="X9" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X9" s="6"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -51203,13 +51179,11 @@
       <c r="W10" s="6">
         <v>678</v>
       </c>
-      <c r="X10" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X10" s="6"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -51277,13 +51251,11 @@
       <c r="W11" s="6">
         <v>656</v>
       </c>
-      <c r="X11" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X11" s="6"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -51351,16 +51323,14 @@
       <c r="W12" s="6">
         <v>678</v>
       </c>
-      <c r="X12" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X12" s="6"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6">
         <v>473877.33499</v>
@@ -51425,16 +51395,14 @@
       <c r="W13" s="6">
         <v>643</v>
       </c>
-      <c r="X13" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X13" s="6"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>474227.780425</v>
@@ -51499,16 +51467,14 @@
       <c r="W14" s="6">
         <v>634</v>
       </c>
-      <c r="X14" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X14" s="6"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6">
         <v>473281.39016800001</v>
@@ -51573,16 +51539,14 @@
       <c r="W15" s="6">
         <v>643</v>
       </c>
-      <c r="X15" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X15" s="6"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6">
         <v>473862.08410899999</v>
@@ -51647,13 +51611,11 @@
       <c r="W16" s="6">
         <v>663</v>
       </c>
-      <c r="X16" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X16" s="6"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -51721,13 +51683,11 @@
       <c r="W17" s="6">
         <v>657</v>
       </c>
-      <c r="X17" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X17" s="6"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
@@ -51795,13 +51755,11 @@
       <c r="W18" s="6">
         <v>657</v>
       </c>
-      <c r="X18" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X18" s="6"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -51869,13 +51827,11 @@
       <c r="W19" s="6">
         <v>657</v>
       </c>
-      <c r="X19" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X19" s="6"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -51943,13 +51899,11 @@
       <c r="W20" s="6">
         <v>678</v>
       </c>
-      <c r="X20" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X20" s="6"/>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
@@ -52017,13 +51971,11 @@
       <c r="W21" s="6">
         <v>642</v>
       </c>
-      <c r="X21" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X21" s="6"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
@@ -52091,13 +52043,11 @@
       <c r="W22" s="6">
         <v>671</v>
       </c>
-      <c r="X22" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X22" s="6"/>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
@@ -52165,13 +52115,11 @@
       <c r="W23" s="6">
         <v>682</v>
       </c>
-      <c r="X23" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X23" s="6"/>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -52239,13 +52187,11 @@
       <c r="W24" s="6">
         <v>735</v>
       </c>
-      <c r="X24" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X24" s="6"/>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -52313,13 +52259,11 @@
       <c r="W25" s="6">
         <v>705</v>
       </c>
-      <c r="X25" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X25" s="6"/>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>18</v>
@@ -52387,13 +52331,11 @@
       <c r="W26" s="6">
         <v>715</v>
       </c>
-      <c r="X26" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X26" s="6"/>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
@@ -52461,16 +52403,14 @@
       <c r="W27" s="6">
         <v>715</v>
       </c>
-      <c r="X27" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X27" s="6"/>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="6">
         <v>483315.16407100001</v>
@@ -52535,16 +52475,14 @@
       <c r="W28" s="6">
         <v>522</v>
       </c>
-      <c r="X28" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X28" s="6"/>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="6">
         <v>483129.80167000002</v>
@@ -52609,16 +52547,14 @@
       <c r="W29" s="6">
         <v>522</v>
       </c>
-      <c r="X29" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X29" s="6"/>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="6">
         <v>488507.29157200002</v>
@@ -52683,16 +52619,14 @@
       <c r="W30" s="6">
         <v>554</v>
       </c>
-      <c r="X30" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X30" s="6"/>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6">
         <v>488915.076</v>
@@ -52757,16 +52691,14 @@
       <c r="W31" s="6">
         <v>554</v>
       </c>
-      <c r="X31" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X31" s="6"/>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6">
         <v>488967.093597</v>
@@ -52831,16 +52763,14 @@
       <c r="W32" s="6">
         <v>554</v>
       </c>
-      <c r="X32" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X32" s="6"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="6">
         <v>499522.97638200002</v>
@@ -52905,13 +52835,11 @@
       <c r="W33" s="6">
         <v>652</v>
       </c>
-      <c r="X33" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X33" s="6"/>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>18</v>
@@ -52979,13 +52907,11 @@
       <c r="W34" s="6">
         <v>717</v>
       </c>
-      <c r="X34" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X34" s="6"/>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>18</v>
@@ -53053,16 +52979,14 @@
       <c r="W35" s="6">
         <v>718</v>
       </c>
-      <c r="X35" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X35" s="6"/>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="6">
         <v>498526.84083599999</v>
@@ -53127,16 +53051,14 @@
       <c r="W36" s="6">
         <v>650</v>
       </c>
-      <c r="X36" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X36" s="6"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="6">
         <v>491141.04055999999</v>
@@ -53201,16 +53123,14 @@
       <c r="W37" s="6">
         <v>565</v>
       </c>
-      <c r="X37" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X37" s="6"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="6">
         <v>491059.50776499999</v>
@@ -53275,16 +53195,14 @@
       <c r="W38" s="6">
         <v>565</v>
       </c>
-      <c r="X38" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X38" s="6"/>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" s="6">
         <v>491168.87119400001</v>
@@ -53349,16 +53267,14 @@
       <c r="W39" s="6">
         <v>565</v>
       </c>
-      <c r="X39" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X39" s="6"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="6">
         <v>490726.831695</v>
@@ -53423,16 +53339,14 @@
       <c r="W40" s="6">
         <v>565</v>
       </c>
-      <c r="X40" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X40" s="6"/>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6">
         <v>481920.97825599997</v>
@@ -53497,16 +53411,14 @@
       <c r="W41" s="6">
         <v>556</v>
       </c>
-      <c r="X41" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X41" s="6"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="6">
         <v>481045.806063</v>
@@ -53571,16 +53483,14 @@
       <c r="W42" s="6">
         <v>494</v>
       </c>
-      <c r="X42" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X42" s="6"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6">
         <v>482798.80806299997</v>
@@ -53645,16 +53555,14 @@
       <c r="W43" s="6">
         <v>620</v>
       </c>
-      <c r="X43" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X43" s="6"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="6">
         <v>482592.24889500003</v>
@@ -53719,13 +53627,11 @@
       <c r="W44" s="6">
         <v>642</v>
       </c>
-      <c r="X44" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X44" s="6"/>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>18</v>
@@ -53793,13 +53699,11 @@
       <c r="W45" s="6">
         <v>755</v>
       </c>
-      <c r="X45" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X45" s="6"/>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>18</v>
@@ -53867,13 +53771,11 @@
       <c r="W46" s="6">
         <v>732</v>
       </c>
-      <c r="X46" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X46" s="6"/>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>18</v>
@@ -53941,13 +53843,11 @@
       <c r="W47" s="6">
         <v>732</v>
       </c>
-      <c r="X47" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X47" s="6"/>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
@@ -54015,13 +53915,11 @@
       <c r="W48" s="6">
         <v>711</v>
       </c>
-      <c r="X48" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X48" s="6"/>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>18</v>
@@ -54089,16 +53987,14 @@
       <c r="W49" s="6">
         <v>706</v>
       </c>
-      <c r="X49" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X49" s="6"/>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="6">
         <v>488903.00239799998</v>
@@ -54163,16 +54059,14 @@
       <c r="W50" s="6">
         <v>676</v>
       </c>
-      <c r="X50" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X50" s="6"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="6">
         <v>489768.91683300002</v>
@@ -54237,13 +54131,11 @@
       <c r="W51" s="6">
         <v>686</v>
       </c>
-      <c r="X51" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X51" s="6"/>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>18</v>
@@ -54311,13 +54203,11 @@
       <c r="W52" s="6">
         <v>686</v>
       </c>
-      <c r="X52" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X52" s="6"/>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>18</v>
@@ -54385,13 +54275,11 @@
       <c r="W53" s="6">
         <v>740</v>
       </c>
-      <c r="X53" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X53" s="6"/>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>18</v>
@@ -54459,13 +54347,11 @@
       <c r="W54" s="6">
         <v>740</v>
       </c>
-      <c r="X54" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X54" s="6"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>18</v>
@@ -54533,13 +54419,11 @@
       <c r="W55" s="6">
         <v>711</v>
       </c>
-      <c r="X55" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X55" s="6"/>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>18</v>
@@ -54607,13 +54491,11 @@
       <c r="W56" s="6">
         <v>700</v>
       </c>
-      <c r="X56" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X56" s="6"/>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>18</v>
@@ -54681,13 +54563,11 @@
       <c r="W57" s="6">
         <v>700</v>
       </c>
-      <c r="X57" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X57" s="6"/>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>18</v>
@@ -54755,13 +54635,11 @@
       <c r="W58" s="6">
         <v>675</v>
       </c>
-      <c r="X58" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X58" s="6"/>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>18</v>
@@ -54829,13 +54707,11 @@
       <c r="W59" s="6">
         <v>747</v>
       </c>
-      <c r="X59" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X59" s="6"/>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>18</v>
@@ -54903,13 +54779,11 @@
       <c r="W60" s="6">
         <v>747</v>
       </c>
-      <c r="X60" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X60" s="6"/>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>18</v>
@@ -54977,13 +54851,11 @@
       <c r="W61" s="6">
         <v>747</v>
       </c>
-      <c r="X61" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X61" s="6"/>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>18</v>
@@ -55051,16 +54923,14 @@
       <c r="W62" s="6">
         <v>730</v>
       </c>
-      <c r="X62" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X62" s="6"/>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C63" s="6">
         <v>498979.64627799997</v>
@@ -55125,16 +54995,14 @@
       <c r="W63" s="6">
         <v>660</v>
       </c>
-      <c r="X63" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X63" s="6"/>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C64" s="6">
         <v>498531.741866</v>
@@ -55199,16 +55067,14 @@
       <c r="W64" s="6">
         <v>647</v>
       </c>
-      <c r="X64" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X64" s="6"/>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C65" s="6">
         <v>498426.38571599999</v>
@@ -55273,16 +55139,14 @@
       <c r="W65" s="6">
         <v>647</v>
       </c>
-      <c r="X65" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X65" s="6"/>
     </row>
     <row r="66" spans="1:24">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" s="6">
         <v>498795.166493</v>
@@ -55347,16 +55211,14 @@
       <c r="W66" s="6">
         <v>669</v>
       </c>
-      <c r="X66" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X66" s="6"/>
     </row>
     <row r="67" spans="1:24">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C67" s="6">
         <v>499083.21071999997</v>
@@ -55421,13 +55283,11 @@
       <c r="W67" s="6">
         <v>660</v>
       </c>
-      <c r="X67" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X67" s="6"/>
     </row>
     <row r="68" spans="1:24">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>18</v>
@@ -55495,13 +55355,11 @@
       <c r="W68" s="6">
         <v>727</v>
       </c>
-      <c r="X68" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X68" s="6"/>
     </row>
     <row r="69" spans="1:24">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>18</v>
@@ -55569,13 +55427,11 @@
       <c r="W69" s="6">
         <v>730</v>
       </c>
-      <c r="X69" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X69" s="6"/>
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>18</v>
@@ -55643,13 +55499,11 @@
       <c r="W70" s="6">
         <v>730</v>
       </c>
-      <c r="X70" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X70" s="6"/>
     </row>
     <row r="71" spans="1:24">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>18</v>
@@ -55717,16 +55571,14 @@
       <c r="W71" s="6">
         <v>730</v>
       </c>
-      <c r="X71" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X71" s="6"/>
     </row>
     <row r="72" spans="1:24">
       <c r="A72" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" s="6">
         <v>499149.55986400001</v>
@@ -55791,13 +55643,11 @@
       <c r="W72" s="6">
         <v>728</v>
       </c>
-      <c r="X72" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X72" s="6"/>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>18</v>
@@ -55865,16 +55715,14 @@
       <c r="W73" s="6">
         <v>731</v>
       </c>
-      <c r="X73" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X73" s="6"/>
     </row>
     <row r="74" spans="1:24">
       <c r="A74" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" s="6">
         <v>499095.81477699999</v>
@@ -55939,13 +55787,11 @@
       <c r="W74" s="6">
         <v>664</v>
       </c>
-      <c r="X74" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X74" s="6"/>
     </row>
     <row r="75" spans="1:24">
       <c r="A75" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>18</v>
@@ -56013,16 +55859,14 @@
       <c r="W75" s="6">
         <v>731</v>
       </c>
-      <c r="X75" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X75" s="6"/>
     </row>
     <row r="76" spans="1:24">
       <c r="A76" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" s="6">
         <v>487362.56873300002</v>
@@ -56087,16 +55931,14 @@
       <c r="W76" s="6">
         <v>685</v>
       </c>
-      <c r="X76" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X76" s="6"/>
     </row>
     <row r="77" spans="1:24">
       <c r="A77" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" s="6">
         <v>487663.80121599999</v>
@@ -56161,13 +56003,11 @@
       <c r="W77" s="6">
         <v>685</v>
       </c>
-      <c r="X77" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X77" s="6"/>
     </row>
     <row r="78" spans="1:24">
       <c r="A78" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>18</v>
@@ -56235,13 +56075,11 @@
       <c r="W78" s="6">
         <v>677</v>
       </c>
-      <c r="X78" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X78" s="6"/>
     </row>
     <row r="79" spans="1:24">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>18</v>
@@ -56309,16 +56147,14 @@
       <c r="W79" s="6">
         <v>669</v>
       </c>
-      <c r="X79" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X79" s="6"/>
     </row>
     <row r="80" spans="1:24">
       <c r="A80" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" s="6">
         <v>490778.13312299998</v>
@@ -56383,13 +56219,11 @@
       <c r="W80" s="6">
         <v>621</v>
       </c>
-      <c r="X80" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X80" s="6"/>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>18</v>
@@ -56457,16 +56291,14 @@
       <c r="W81" s="6">
         <v>621</v>
       </c>
-      <c r="X81" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X81" s="6"/>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="6">
         <v>492135.28103399999</v>
@@ -56531,16 +56363,14 @@
       <c r="W82" s="6">
         <v>630</v>
       </c>
-      <c r="X82" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X82" s="6"/>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" s="6">
         <v>492447.52971899998</v>
@@ -56605,13 +56435,11 @@
       <c r="W83" s="6">
         <v>630</v>
       </c>
-      <c r="X83" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X83" s="6"/>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>18</v>
@@ -56679,16 +56507,14 @@
       <c r="W84" s="6">
         <v>613</v>
       </c>
-      <c r="X84" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X84" s="6"/>
     </row>
     <row r="85" spans="1:24">
       <c r="A85" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85" s="6">
         <v>494848.48486000003</v>
@@ -56753,16 +56579,14 @@
       <c r="W85" s="6">
         <v>613</v>
       </c>
-      <c r="X85" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X85" s="6"/>
     </row>
     <row r="86" spans="1:24">
       <c r="A86" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C86" s="6">
         <v>494885.32881699997</v>
@@ -56827,16 +56651,14 @@
       <c r="W86" s="6">
         <v>613</v>
       </c>
-      <c r="X86" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X86" s="6"/>
     </row>
     <row r="87" spans="1:24">
       <c r="A87" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" s="6">
         <v>496138.21748200001</v>
@@ -56901,13 +56723,11 @@
       <c r="W87" s="6">
         <v>657</v>
       </c>
-      <c r="X87" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X87" s="6"/>
     </row>
     <row r="88" spans="1:24">
       <c r="A88" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>18</v>
@@ -56975,13 +56795,11 @@
       <c r="W88" s="6">
         <v>621</v>
       </c>
-      <c r="X88" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X88" s="6"/>
     </row>
     <row r="89" spans="1:24">
       <c r="A89" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>18</v>
@@ -57049,13 +56867,11 @@
       <c r="W89" s="6">
         <v>677</v>
       </c>
-      <c r="X89" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X89" s="6"/>
     </row>
     <row r="90" spans="1:24">
       <c r="A90" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>18</v>
@@ -57123,13 +56939,11 @@
       <c r="W90" s="6">
         <v>677</v>
       </c>
-      <c r="X90" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X90" s="6"/>
     </row>
     <row r="91" spans="1:24">
       <c r="A91" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>18</v>
@@ -57197,13 +57011,11 @@
       <c r="W91" s="6">
         <v>670</v>
       </c>
-      <c r="X91" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X91" s="6"/>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>18</v>
@@ -57271,13 +57083,11 @@
       <c r="W92" s="6">
         <v>699</v>
       </c>
-      <c r="X92" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X92" s="6"/>
     </row>
     <row r="93" spans="1:24">
       <c r="A93" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>18</v>
@@ -57345,16 +57155,14 @@
       <c r="W93" s="6">
         <v>710</v>
       </c>
-      <c r="X93" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X93" s="6"/>
     </row>
     <row r="94" spans="1:24">
       <c r="A94" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94" s="6">
         <v>499296.46712799999</v>
@@ -57419,13 +57227,11 @@
       <c r="W94" s="6">
         <v>653</v>
       </c>
-      <c r="X94" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X94" s="6"/>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>18</v>
@@ -57493,16 +57299,14 @@
       <c r="W95" s="6">
         <v>661</v>
       </c>
-      <c r="X95" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X95" s="6"/>
     </row>
     <row r="96" spans="1:24">
       <c r="A96" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" s="6">
         <v>499858.77440499997</v>
@@ -57567,13 +57371,11 @@
       <c r="W96" s="6">
         <v>665</v>
       </c>
-      <c r="X96" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X96" s="6"/>
     </row>
     <row r="97" spans="1:24">
       <c r="A97" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>18</v>
@@ -57641,16 +57443,14 @@
       <c r="W97" s="6">
         <v>654</v>
       </c>
-      <c r="X97" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X97" s="6"/>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C98" s="6">
         <v>487132.38014999998</v>
@@ -57715,16 +57515,14 @@
       <c r="W98" s="6">
         <v>637</v>
       </c>
-      <c r="X98" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X98" s="6"/>
     </row>
     <row r="99" spans="1:24">
       <c r="A99" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" s="6">
         <v>487013.58464700001</v>
@@ -57789,16 +57587,14 @@
       <c r="W99" s="6">
         <v>637</v>
       </c>
-      <c r="X99" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X99" s="6"/>
     </row>
     <row r="100" spans="1:24">
       <c r="A100" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C100" s="6">
         <v>487331.12840699998</v>
@@ -57863,16 +57659,14 @@
       <c r="W100" s="6">
         <v>612</v>
       </c>
-      <c r="X100" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X100" s="6"/>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C101" s="6">
         <v>493077.04963999998</v>
@@ -57937,16 +57731,14 @@
       <c r="W101" s="6">
         <v>602</v>
       </c>
-      <c r="X101" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X101" s="6"/>
     </row>
     <row r="102" spans="1:24">
       <c r="A102" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C102" s="6">
         <v>493348.688303</v>
@@ -58011,16 +57803,14 @@
       <c r="W102" s="6">
         <v>578</v>
       </c>
-      <c r="X102" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X102" s="6"/>
     </row>
     <row r="103" spans="1:24">
       <c r="A103" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C103" s="6">
         <v>493508.15772199997</v>
@@ -58085,16 +57875,14 @@
       <c r="W103" s="6">
         <v>662</v>
       </c>
-      <c r="X103" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X103" s="6"/>
     </row>
     <row r="104" spans="1:24">
       <c r="A104" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C104" s="6">
         <v>493348.29979299998</v>
@@ -58159,16 +57947,14 @@
       <c r="W104" s="6">
         <v>662</v>
       </c>
-      <c r="X104" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X104" s="6"/>
     </row>
     <row r="105" spans="1:24">
       <c r="A105" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C105" s="6">
         <v>493202.27565000003</v>
@@ -58233,16 +58019,14 @@
       <c r="W105" s="6">
         <v>655</v>
       </c>
-      <c r="X105" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X105" s="6"/>
     </row>
     <row r="106" spans="1:24">
       <c r="A106" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C106" s="6">
         <v>493133.475791</v>
@@ -58307,16 +58091,14 @@
       <c r="W106" s="6">
         <v>655</v>
       </c>
-      <c r="X106" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X106" s="6"/>
     </row>
     <row r="107" spans="1:24">
       <c r="A107" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C107" s="6">
         <v>493819.19655599998</v>
@@ -58381,16 +58163,14 @@
       <c r="W107" s="6">
         <v>662</v>
       </c>
-      <c r="X107" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X107" s="6"/>
     </row>
     <row r="108" spans="1:24">
       <c r="A108" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C108" s="6">
         <v>502814.65880700003</v>
@@ -58455,16 +58235,14 @@
       <c r="W108" s="6">
         <v>587</v>
       </c>
-      <c r="X108" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X108" s="6"/>
     </row>
     <row r="109" spans="1:24">
       <c r="A109" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C109" s="6">
         <v>502499.46222300001</v>
@@ -58529,16 +58307,14 @@
       <c r="W109" s="6">
         <v>587</v>
       </c>
-      <c r="X109" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X109" s="6"/>
     </row>
     <row r="110" spans="1:24">
       <c r="A110" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C110" s="6">
         <v>501560.30840099999</v>
@@ -58603,16 +58379,14 @@
       <c r="W110" s="6">
         <v>570</v>
       </c>
-      <c r="X110" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X110" s="6"/>
     </row>
     <row r="111" spans="1:24">
       <c r="A111" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C111" s="6">
         <v>501836.45562899997</v>
@@ -58677,16 +58451,14 @@
       <c r="W111" s="6">
         <v>570</v>
       </c>
-      <c r="X111" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X111" s="6"/>
     </row>
     <row r="112" spans="1:24">
       <c r="A112" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C112" s="6">
         <v>500659.92288799997</v>
@@ -58751,16 +58523,14 @@
       <c r="W112" s="6">
         <v>579</v>
       </c>
-      <c r="X112" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X112" s="6"/>
     </row>
     <row r="113" spans="1:24">
       <c r="A113" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C113" s="6">
         <v>500395.69926999998</v>
@@ -58825,16 +58595,14 @@
       <c r="W113" s="6">
         <v>557</v>
       </c>
-      <c r="X113" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X113" s="6"/>
     </row>
     <row r="114" spans="1:24">
       <c r="A114" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C114" s="6">
         <v>502925.07958100003</v>
@@ -58899,16 +58667,14 @@
       <c r="W114" s="6">
         <v>606</v>
       </c>
-      <c r="X114" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X114" s="6"/>
     </row>
     <row r="115" spans="1:24">
       <c r="A115" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C115" s="6">
         <v>503121.23576399998</v>
@@ -58973,13 +58739,11 @@
       <c r="W115" s="6">
         <v>569</v>
       </c>
-      <c r="X115" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="X115" s="6"/>
     </row>
     <row r="116" spans="1:24">
       <c r="A116" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>18</v>
@@ -59047,13 +58811,11 @@
       <c r="W116" s="6">
         <v>800</v>
       </c>
-      <c r="X116" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X116" s="6"/>
     </row>
     <row r="117" spans="1:24">
       <c r="A117" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>18</v>
@@ -59121,13 +58883,11 @@
       <c r="W117" s="6">
         <v>785</v>
       </c>
-      <c r="X117" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X117" s="6"/>
     </row>
     <row r="118" spans="1:24">
       <c r="A118" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>18</v>
@@ -59195,13 +58955,11 @@
       <c r="W118" s="6">
         <v>785</v>
       </c>
-      <c r="X118" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X118" s="6"/>
     </row>
     <row r="119" spans="1:24">
       <c r="A119" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>18</v>
@@ -59269,13 +59027,11 @@
       <c r="W119" s="6">
         <v>745</v>
       </c>
-      <c r="X119" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X119" s="6"/>
     </row>
     <row r="120" spans="1:24">
       <c r="A120" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>18</v>
@@ -59343,13 +59099,11 @@
       <c r="W120" s="6">
         <v>727</v>
       </c>
-      <c r="X120" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X120" s="6"/>
     </row>
     <row r="121" spans="1:24">
       <c r="A121" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>18</v>
@@ -59417,13 +59171,11 @@
       <c r="W121" s="6">
         <v>727</v>
       </c>
-      <c r="X121" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X121" s="6"/>
     </row>
     <row r="122" spans="1:24">
       <c r="A122" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>18</v>
@@ -59491,13 +59243,11 @@
       <c r="W122" s="6">
         <v>757</v>
       </c>
-      <c r="X122" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X122" s="6"/>
     </row>
     <row r="123" spans="1:24">
       <c r="A123" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>18</v>
@@ -59565,13 +59315,11 @@
       <c r="W123" s="6">
         <v>757</v>
       </c>
-      <c r="X123" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X123" s="6"/>
     </row>
     <row r="124" spans="1:24">
       <c r="A124" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>18</v>
@@ -59639,13 +59387,11 @@
       <c r="W124" s="6">
         <v>679</v>
       </c>
-      <c r="X124" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X124" s="6"/>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>18</v>
@@ -59713,13 +59459,11 @@
       <c r="W125" s="6">
         <v>679</v>
       </c>
-      <c r="X125" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X125" s="6"/>
     </row>
     <row r="126" spans="1:24">
       <c r="A126" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>18</v>
@@ -59787,13 +59531,11 @@
       <c r="W126" s="6">
         <v>748</v>
       </c>
-      <c r="X126" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X126" s="6"/>
     </row>
     <row r="127" spans="1:24">
       <c r="A127" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>18</v>
@@ -59861,13 +59603,11 @@
       <c r="W127" s="6">
         <v>748</v>
       </c>
-      <c r="X127" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X127" s="6"/>
     </row>
     <row r="128" spans="1:24">
       <c r="A128" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>18</v>
@@ -59935,13 +59675,11 @@
       <c r="W128" s="6">
         <v>748</v>
       </c>
-      <c r="X128" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="X128" s="6"/>
     </row>
     <row r="129" spans="16:16">
       <c r="P129" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/data_enviroment_worldclim.xlsx
+++ b/data/raw/data_enviroment_worldclim.xlsx
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -714,6 +714,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,7 +992,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -50434,7 +50440,7 @@
   <dimension ref="A1:X129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+      <selection activeCell="R1" sqref="R1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -50451,12 +50457,12 @@
     <col min="15" max="15" width="5.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" style="9" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="11.42578125" style="5"/>
   </cols>
@@ -50513,22 +50519,22 @@
       <c r="Q1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="19" t="s">
         <v>15</v>
       </c>
       <c r="X1" s="2"/>
@@ -50585,22 +50591,22 @@
       <c r="Q2" s="4">
         <v>5.7105930000000003</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="20">
         <v>4001</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="20">
         <v>136</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="20">
         <v>33</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="20">
         <v>254</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="20">
         <v>199</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="20">
         <v>675</v>
       </c>
       <c r="X2" s="6"/>
@@ -50657,22 +50663,22 @@
       <c r="Q3" s="4">
         <v>14.724246000000001</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="20">
         <v>4301</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="20">
         <v>151</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="20">
         <v>32</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="20">
         <v>250</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="20">
         <v>196</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="20">
         <v>660</v>
       </c>
       <c r="X3" s="6"/>
@@ -50729,22 +50735,22 @@
       <c r="Q4" s="4">
         <v>10.315082</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="20">
         <v>4181</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="20">
         <v>145</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="20">
         <v>33</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="20">
         <v>251</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="20">
         <v>197</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="20">
         <v>665</v>
       </c>
       <c r="X4" s="6"/>
@@ -50801,22 +50807,22 @@
       <c r="Q5" s="4">
         <v>10.024988</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="20">
         <v>4088</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="20">
         <v>145</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="20">
         <v>33</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="20">
         <v>252</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="20">
         <v>197</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="20">
         <v>665</v>
       </c>
       <c r="X5" s="6"/>
@@ -50873,22 +50879,22 @@
       <c r="Q6" s="4">
         <v>8.5889249999999997</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="20">
         <v>3658</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="20">
         <v>83</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="20">
         <v>39</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="20">
         <v>258</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="20">
         <v>204</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="20">
         <v>649</v>
       </c>
       <c r="X6" s="6"/>
@@ -50945,22 +50951,22 @@
       <c r="Q7" s="4">
         <v>5.0511520000000001</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="20">
         <v>3658</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="20">
         <v>84</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="20">
         <v>39</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="20">
         <v>258</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="20">
         <v>204</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="20">
         <v>655</v>
       </c>
       <c r="X7" s="6"/>
@@ -51017,22 +51023,22 @@
       <c r="Q8" s="4">
         <v>0</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="20">
         <v>3623</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="20">
         <v>85</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="20">
         <v>40</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="20">
         <v>258</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="20">
         <v>203</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="20">
         <v>634</v>
       </c>
       <c r="X8" s="6"/>
@@ -51089,22 +51095,22 @@
       <c r="Q9" s="4">
         <v>0</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="20">
         <v>3553</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="20">
         <v>89</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="20">
         <v>39</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="20">
         <v>259</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="20">
         <v>204</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="20">
         <v>656</v>
       </c>
       <c r="X9" s="6"/>
@@ -51161,22 +51167,22 @@
       <c r="Q10" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="20">
         <v>3584</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="20">
         <v>91</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="20">
         <v>39</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="20">
         <v>258</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="20">
         <v>204</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="20">
         <v>678</v>
       </c>
       <c r="X10" s="6"/>
@@ -51233,22 +51239,22 @@
       <c r="Q11" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="20">
         <v>3603</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="20">
         <v>89</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="20">
         <v>39</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="20">
         <v>258</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="20">
         <v>204</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="20">
         <v>656</v>
       </c>
       <c r="X11" s="6"/>
@@ -51305,22 +51311,22 @@
       <c r="Q12" s="4">
         <v>0</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="20">
         <v>3603</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="20">
         <v>91</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="20">
         <v>39</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="20">
         <v>258</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="20">
         <v>204</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="20">
         <v>678</v>
       </c>
       <c r="X12" s="6"/>
@@ -51377,22 +51383,22 @@
       <c r="Q13" s="4">
         <v>0</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="20">
         <v>3870</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="20">
         <v>104</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="20">
         <v>38</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="20">
         <v>252</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="20">
         <v>197</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="20">
         <v>643</v>
       </c>
       <c r="X13" s="6"/>
@@ -51449,22 +51455,22 @@
       <c r="Q14" s="4">
         <v>25.453783999999999</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="20">
         <v>3867</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="20">
         <v>104</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="20">
         <v>38</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="20">
         <v>253</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="20">
         <v>198</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="20">
         <v>634</v>
       </c>
       <c r="X14" s="6"/>
@@ -51521,22 +51527,22 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="20">
         <v>3870</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="20">
         <v>104</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="20">
         <v>38</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="20">
         <v>252</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="20">
         <v>197</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="20">
         <v>643</v>
       </c>
       <c r="X15" s="6"/>
@@ -51593,22 +51599,22 @@
       <c r="Q16" s="4">
         <v>14.882566000000001</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="20">
         <v>3366</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="20">
         <v>76</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="20">
         <v>42</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="20">
         <v>258</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="20">
         <v>204</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="20">
         <v>663</v>
       </c>
       <c r="X16" s="6"/>
@@ -51665,22 +51671,22 @@
       <c r="Q17" s="4">
         <v>0</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="20">
         <v>4088</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="20">
         <v>156</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="20">
         <v>32</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="20">
         <v>258</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="20">
         <v>205</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="20">
         <v>657</v>
       </c>
       <c r="X17" s="6"/>
@@ -51737,22 +51743,22 @@
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="20">
         <v>4041</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="20">
         <v>156</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="20">
         <v>32</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="20">
         <v>258</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="20">
         <v>205</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="20">
         <v>657</v>
       </c>
       <c r="X18" s="6"/>
@@ -51809,22 +51815,22 @@
       <c r="Q19" s="4">
         <v>0</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="20">
         <v>4088</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="20">
         <v>156</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="20">
         <v>32</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="20">
         <v>258</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="20">
         <v>205</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="20">
         <v>657</v>
       </c>
       <c r="X19" s="6"/>
@@ -51881,22 +51887,22 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="20">
         <v>4094</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="20">
         <v>157</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="20">
         <v>32</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="20">
         <v>258</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="20">
         <v>205</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="20">
         <v>678</v>
       </c>
       <c r="X20" s="6"/>
@@ -51953,22 +51959,22 @@
       <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="20">
         <v>4019</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="20">
         <v>152</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="20">
         <v>32</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="20">
         <v>258</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="20">
         <v>205</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="20">
         <v>642</v>
       </c>
       <c r="X21" s="6"/>
@@ -52025,22 +52031,22 @@
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="20">
         <v>3957</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="20">
         <v>147</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="20">
         <v>33</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="20">
         <v>258</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="20">
         <v>205</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="20">
         <v>671</v>
       </c>
       <c r="X22" s="6"/>
@@ -52097,22 +52103,22 @@
       <c r="Q23" s="4">
         <v>0</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="20">
         <v>3957</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="20">
         <v>153</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="20">
         <v>32</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="20">
         <v>258</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="20">
         <v>204</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="20">
         <v>682</v>
       </c>
       <c r="X23" s="6"/>
@@ -52169,22 +52175,22 @@
       <c r="Q24" s="4">
         <v>2.8624049999999999</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="20">
         <v>4126</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="20">
         <v>172</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="20">
         <v>27</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="20">
         <v>255</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="20">
         <v>202</v>
       </c>
-      <c r="W24" s="6">
+      <c r="W24" s="20">
         <v>735</v>
       </c>
       <c r="X24" s="6"/>
@@ -52241,22 +52247,22 @@
       <c r="Q25" s="4">
         <v>3.1996009999999999</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="20">
         <v>4126</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="20">
         <v>173</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="20">
         <v>27</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="20">
         <v>255</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="20">
         <v>202</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="20">
         <v>705</v>
       </c>
       <c r="X25" s="6"/>
@@ -52313,22 +52319,22 @@
       <c r="Q26" s="4">
         <v>20.38767</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="20">
         <v>4141</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="20">
         <v>175</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="20">
         <v>27</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="20">
         <v>254</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="20">
         <v>200</v>
       </c>
-      <c r="W26" s="6">
+      <c r="W26" s="20">
         <v>715</v>
       </c>
       <c r="X26" s="6"/>
@@ -52385,22 +52391,22 @@
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="20">
         <v>4202</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="20">
         <v>175</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="20">
         <v>27</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="20">
         <v>253</v>
       </c>
-      <c r="V27" s="6">
+      <c r="V27" s="20">
         <v>200</v>
       </c>
-      <c r="W27" s="6">
+      <c r="W27" s="20">
         <v>715</v>
       </c>
       <c r="X27" s="6"/>
@@ -52457,22 +52463,22 @@
       <c r="Q28" s="4">
         <v>22.425418000000001</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28" s="20">
         <v>4357</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="20">
         <v>151</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="20">
         <v>38</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="20">
         <v>229</v>
       </c>
-      <c r="V28" s="6">
+      <c r="V28" s="20">
         <v>171</v>
       </c>
-      <c r="W28" s="6">
+      <c r="W28" s="20">
         <v>522</v>
       </c>
       <c r="X28" s="6"/>
@@ -52529,22 +52535,22 @@
       <c r="Q29" s="4">
         <v>28.004097999999999</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29" s="20">
         <v>4357</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="20">
         <v>151</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="20">
         <v>38</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="20">
         <v>229</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V29" s="20">
         <v>171</v>
       </c>
-      <c r="W29" s="6">
+      <c r="W29" s="20">
         <v>522</v>
       </c>
       <c r="X29" s="6"/>
@@ -52601,22 +52607,22 @@
       <c r="Q30" s="4">
         <v>7.0541309999999999</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="20">
         <v>2839</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="20">
         <v>50</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="20">
         <v>60</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="20">
         <v>200</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="20">
         <v>145</v>
       </c>
-      <c r="W30" s="6">
+      <c r="W30" s="20">
         <v>554</v>
       </c>
       <c r="X30" s="6"/>
@@ -52673,22 +52679,22 @@
       <c r="Q31" s="4">
         <v>16.835445</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="20">
         <v>3330</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="20">
         <v>88</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="20">
         <v>47</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="20">
         <v>206</v>
       </c>
-      <c r="V31" s="6">
+      <c r="V31" s="20">
         <v>150</v>
       </c>
-      <c r="W31" s="6">
+      <c r="W31" s="20">
         <v>554</v>
       </c>
       <c r="X31" s="6"/>
@@ -52745,22 +52751,22 @@
       <c r="Q32" s="4">
         <v>8.1112789999999997</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="20">
         <v>3330</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="20">
         <v>88</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="20">
         <v>47</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="20">
         <v>206</v>
       </c>
-      <c r="V32" s="6">
+      <c r="V32" s="20">
         <v>150</v>
       </c>
-      <c r="W32" s="6">
+      <c r="W32" s="20">
         <v>554</v>
       </c>
       <c r="X32" s="6"/>
@@ -52817,22 +52823,22 @@
       <c r="Q33" s="4">
         <v>8.1112789999999997</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="20">
         <v>4188</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="20">
         <v>173</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="20">
         <v>27</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="20">
         <v>247</v>
       </c>
-      <c r="V33" s="6">
+      <c r="V33" s="20">
         <v>193</v>
       </c>
-      <c r="W33" s="6">
+      <c r="W33" s="20">
         <v>652</v>
       </c>
       <c r="X33" s="6"/>
@@ -52889,22 +52895,22 @@
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="20">
         <v>4146</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="20">
         <v>171</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="20">
         <v>27</v>
       </c>
-      <c r="U34" s="6">
+      <c r="U34" s="20">
         <v>250</v>
       </c>
-      <c r="V34" s="6">
+      <c r="V34" s="20">
         <v>196</v>
       </c>
-      <c r="W34" s="6">
+      <c r="W34" s="20">
         <v>717</v>
       </c>
       <c r="X34" s="6"/>
@@ -52961,22 +52967,22 @@
       <c r="Q35" s="4">
         <v>8.0494669999999999</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35" s="20">
         <v>4205</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="20">
         <v>174</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="20">
         <v>27</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U35" s="20">
         <v>248</v>
       </c>
-      <c r="V35" s="6">
+      <c r="V35" s="20">
         <v>193</v>
       </c>
-      <c r="W35" s="6">
+      <c r="W35" s="20">
         <v>718</v>
       </c>
       <c r="X35" s="6"/>
@@ -53033,22 +53039,22 @@
       <c r="Q36" s="4">
         <v>3.1996009999999999</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="20">
         <v>4231</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="20">
         <v>175</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="20">
         <v>27</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" s="20">
         <v>245</v>
       </c>
-      <c r="V36" s="6">
+      <c r="V36" s="20">
         <v>190</v>
       </c>
-      <c r="W36" s="6">
+      <c r="W36" s="20">
         <v>650</v>
       </c>
       <c r="X36" s="6"/>
@@ -53105,22 +53111,22 @@
       <c r="Q37" s="4">
         <v>13.519691999999999</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37" s="20">
         <v>4450</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="20">
         <v>182</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="20">
         <v>29</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="20">
         <v>243</v>
       </c>
-      <c r="V37" s="6">
+      <c r="V37" s="20">
         <v>184</v>
       </c>
-      <c r="W37" s="6">
+      <c r="W37" s="20">
         <v>565</v>
       </c>
       <c r="X37" s="6"/>
@@ -53177,22 +53183,22 @@
       <c r="Q38" s="4">
         <v>0</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38" s="20">
         <v>4439</v>
       </c>
-      <c r="S38" s="6">
+      <c r="S38" s="20">
         <v>182</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="20">
         <v>29</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="20">
         <v>239</v>
       </c>
-      <c r="V38" s="6">
+      <c r="V38" s="20">
         <v>184</v>
       </c>
-      <c r="W38" s="6">
+      <c r="W38" s="20">
         <v>565</v>
       </c>
       <c r="X38" s="6"/>
@@ -53249,22 +53255,22 @@
       <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39" s="20">
         <v>4439</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="20">
         <v>182</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="20">
         <v>29</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" s="20">
         <v>239</v>
       </c>
-      <c r="V39" s="6">
+      <c r="V39" s="20">
         <v>184</v>
       </c>
-      <c r="W39" s="6">
+      <c r="W39" s="20">
         <v>565</v>
       </c>
       <c r="X39" s="6"/>
@@ -53321,22 +53327,22 @@
       <c r="Q40" s="4">
         <v>5.150652</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="20">
         <v>4439</v>
       </c>
-      <c r="S40" s="6">
+      <c r="S40" s="20">
         <v>182</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="20">
         <v>29</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="20">
         <v>239</v>
       </c>
-      <c r="V40" s="6">
+      <c r="V40" s="20">
         <v>184</v>
       </c>
-      <c r="W40" s="6">
+      <c r="W40" s="20">
         <v>565</v>
       </c>
       <c r="X40" s="6"/>
@@ -53393,22 +53399,22 @@
       <c r="Q41" s="4">
         <v>1.01275</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="20">
         <v>4490</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="20">
         <v>146</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="20">
         <v>39</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="20">
         <v>225</v>
       </c>
-      <c r="V41" s="6">
+      <c r="V41" s="20">
         <v>168</v>
       </c>
-      <c r="W41" s="6">
+      <c r="W41" s="20">
         <v>556</v>
       </c>
       <c r="X41" s="6"/>
@@ -53465,22 +53471,22 @@
       <c r="Q42" s="4">
         <v>0</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="20">
         <v>4358</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="20">
         <v>145</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="20">
         <v>40</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="20">
         <v>230</v>
       </c>
-      <c r="V42" s="6">
+      <c r="V42" s="20">
         <v>169</v>
       </c>
-      <c r="W42" s="6">
+      <c r="W42" s="20">
         <v>494</v>
       </c>
       <c r="X42" s="6"/>
@@ -53537,22 +53543,22 @@
       <c r="Q43" s="4">
         <v>0</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="20">
         <v>4176</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="20">
         <v>162</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="20">
         <v>29</v>
       </c>
-      <c r="U43" s="6">
+      <c r="U43" s="20">
         <v>248</v>
       </c>
-      <c r="V43" s="6">
+      <c r="V43" s="20">
         <v>192</v>
       </c>
-      <c r="W43" s="6">
+      <c r="W43" s="20">
         <v>620</v>
       </c>
       <c r="X43" s="6"/>
@@ -53609,22 +53615,22 @@
       <c r="Q44" s="4">
         <v>16.168741000000001</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="20">
         <v>4176</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="20">
         <v>160</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="20">
         <v>29</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U44" s="20">
         <v>248</v>
       </c>
-      <c r="V44" s="6">
+      <c r="V44" s="20">
         <v>193</v>
       </c>
-      <c r="W44" s="6">
+      <c r="W44" s="20">
         <v>642</v>
       </c>
       <c r="X44" s="6"/>
@@ -53681,22 +53687,22 @@
       <c r="Q45" s="4">
         <v>2.0248680000000001</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="20">
         <v>4077</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="20">
         <v>174</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="20">
         <v>27</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U45" s="20">
         <v>257</v>
       </c>
-      <c r="V45" s="6">
+      <c r="V45" s="20">
         <v>202</v>
       </c>
-      <c r="W45" s="6">
+      <c r="W45" s="20">
         <v>755</v>
       </c>
       <c r="X45" s="6"/>
@@ -53753,22 +53759,22 @@
       <c r="Q46" s="4">
         <v>13.900669000000001</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="20">
         <v>4022</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="20">
         <v>171</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="20">
         <v>27</v>
       </c>
-      <c r="U46" s="6">
+      <c r="U46" s="20">
         <v>259</v>
       </c>
-      <c r="V46" s="6">
+      <c r="V46" s="20">
         <v>206</v>
       </c>
-      <c r="W46" s="6">
+      <c r="W46" s="20">
         <v>732</v>
       </c>
       <c r="X46" s="6"/>
@@ -53825,22 +53831,22 @@
       <c r="Q47" s="4">
         <v>15.34595</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="20">
         <v>4022</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="20">
         <v>171</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="20">
         <v>27</v>
       </c>
-      <c r="U47" s="6">
+      <c r="U47" s="20">
         <v>259</v>
       </c>
-      <c r="V47" s="6">
+      <c r="V47" s="20">
         <v>206</v>
       </c>
-      <c r="W47" s="6">
+      <c r="W47" s="20">
         <v>732</v>
       </c>
       <c r="X47" s="6"/>
@@ -53897,22 +53903,22 @@
       <c r="Q48" s="4">
         <v>3.1996009999999999</v>
       </c>
-      <c r="R48" s="6">
+      <c r="R48" s="20">
         <v>4061</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="20">
         <v>172</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="20">
         <v>27</v>
       </c>
-      <c r="U48" s="6">
+      <c r="U48" s="20">
         <v>257</v>
       </c>
-      <c r="V48" s="6">
+      <c r="V48" s="20">
         <v>204</v>
       </c>
-      <c r="W48" s="6">
+      <c r="W48" s="20">
         <v>711</v>
       </c>
       <c r="X48" s="6"/>
@@ -53969,22 +53975,22 @@
       <c r="Q49" s="4">
         <v>0</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49" s="20">
         <v>4114</v>
       </c>
-      <c r="S49" s="6">
+      <c r="S49" s="20">
         <v>165</v>
       </c>
-      <c r="T49" s="6">
+      <c r="T49" s="20">
         <v>28</v>
       </c>
-      <c r="U49" s="6">
+      <c r="U49" s="20">
         <v>253</v>
       </c>
-      <c r="V49" s="6">
+      <c r="V49" s="20">
         <v>199</v>
       </c>
-      <c r="W49" s="6">
+      <c r="W49" s="20">
         <v>706</v>
       </c>
       <c r="X49" s="6"/>
@@ -54041,22 +54047,22 @@
       <c r="Q50" s="4">
         <v>28.121784000000002</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50" s="20">
         <v>4180</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="20">
         <v>168</v>
       </c>
-      <c r="T50" s="6">
+      <c r="T50" s="20">
         <v>28</v>
       </c>
-      <c r="U50" s="6">
+      <c r="U50" s="20">
         <v>251</v>
       </c>
-      <c r="V50" s="6">
+      <c r="V50" s="20">
         <v>197</v>
       </c>
-      <c r="W50" s="6">
+      <c r="W50" s="20">
         <v>676</v>
       </c>
       <c r="X50" s="6"/>
@@ -54113,22 +54119,22 @@
       <c r="Q51" s="4">
         <v>18.850545</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="20">
         <v>4107</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="20">
         <v>167</v>
       </c>
-      <c r="T51" s="6">
+      <c r="T51" s="20">
         <v>28</v>
       </c>
-      <c r="U51" s="6">
+      <c r="U51" s="20">
         <v>254</v>
       </c>
-      <c r="V51" s="6">
+      <c r="V51" s="20">
         <v>200</v>
       </c>
-      <c r="W51" s="6">
+      <c r="W51" s="20">
         <v>686</v>
       </c>
       <c r="X51" s="6"/>
@@ -54185,22 +54191,22 @@
       <c r="Q52" s="4">
         <v>0</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="20">
         <v>4107</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="20">
         <v>167</v>
       </c>
-      <c r="T52" s="6">
+      <c r="T52" s="20">
         <v>28</v>
       </c>
-      <c r="U52" s="6">
+      <c r="U52" s="20">
         <v>254</v>
       </c>
-      <c r="V52" s="6">
+      <c r="V52" s="20">
         <v>200</v>
       </c>
-      <c r="W52" s="6">
+      <c r="W52" s="20">
         <v>686</v>
       </c>
       <c r="X52" s="6"/>
@@ -54257,22 +54263,22 @@
       <c r="Q53" s="4">
         <v>8.6466700000000003</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="20">
         <v>4182</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S53" s="20">
         <v>178</v>
       </c>
-      <c r="T53" s="6">
+      <c r="T53" s="20">
         <v>27</v>
       </c>
-      <c r="U53" s="6">
+      <c r="U53" s="20">
         <v>254</v>
       </c>
-      <c r="V53" s="6">
+      <c r="V53" s="20">
         <v>201</v>
       </c>
-      <c r="W53" s="6">
+      <c r="W53" s="20">
         <v>740</v>
       </c>
       <c r="X53" s="6"/>
@@ -54329,22 +54335,22 @@
       <c r="Q54" s="4">
         <v>8.1112789999999997</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="20">
         <v>4182</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="20">
         <v>178</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T54" s="20">
         <v>27</v>
       </c>
-      <c r="U54" s="6">
+      <c r="U54" s="20">
         <v>254</v>
       </c>
-      <c r="V54" s="6">
+      <c r="V54" s="20">
         <v>201</v>
       </c>
-      <c r="W54" s="6">
+      <c r="W54" s="20">
         <v>740</v>
       </c>
       <c r="X54" s="6"/>
@@ -54401,22 +54407,22 @@
       <c r="Q55" s="4">
         <v>8.0494669999999999</v>
       </c>
-      <c r="R55" s="6">
+      <c r="R55" s="20">
         <v>3802</v>
       </c>
-      <c r="S55" s="6">
+      <c r="S55" s="20">
         <v>137</v>
       </c>
-      <c r="T55" s="6">
+      <c r="T55" s="20">
         <v>32</v>
       </c>
-      <c r="U55" s="6">
+      <c r="U55" s="20">
         <v>259</v>
       </c>
-      <c r="V55" s="6">
+      <c r="V55" s="20">
         <v>205</v>
       </c>
-      <c r="W55" s="6">
+      <c r="W55" s="20">
         <v>711</v>
       </c>
       <c r="X55" s="6"/>
@@ -54473,22 +54479,22 @@
       <c r="Q56" s="4">
         <v>8.0494669999999999</v>
       </c>
-      <c r="R56" s="6">
+      <c r="R56" s="20">
         <v>3801</v>
       </c>
-      <c r="S56" s="6">
+      <c r="S56" s="20">
         <v>137</v>
       </c>
-      <c r="T56" s="6">
+      <c r="T56" s="20">
         <v>32</v>
       </c>
-      <c r="U56" s="6">
+      <c r="U56" s="20">
         <v>259</v>
       </c>
-      <c r="V56" s="6">
+      <c r="V56" s="20">
         <v>205</v>
       </c>
-      <c r="W56" s="6">
+      <c r="W56" s="20">
         <v>700</v>
       </c>
       <c r="X56" s="6"/>
@@ -54545,22 +54551,22 @@
       <c r="Q57" s="4">
         <v>18.944181</v>
       </c>
-      <c r="R57" s="6">
+      <c r="R57" s="20">
         <v>3801</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57" s="20">
         <v>137</v>
       </c>
-      <c r="T57" s="6">
+      <c r="T57" s="20">
         <v>32</v>
       </c>
-      <c r="U57" s="6">
+      <c r="U57" s="20">
         <v>259</v>
       </c>
-      <c r="V57" s="6">
+      <c r="V57" s="20">
         <v>205</v>
       </c>
-      <c r="W57" s="6">
+      <c r="W57" s="20">
         <v>700</v>
       </c>
       <c r="X57" s="6"/>
@@ -54617,22 +54623,22 @@
       <c r="Q58" s="4">
         <v>1.01275</v>
       </c>
-      <c r="R58" s="6">
+      <c r="R58" s="20">
         <v>3801</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S58" s="20">
         <v>153</v>
       </c>
-      <c r="T58" s="6">
+      <c r="T58" s="20">
         <v>31</v>
       </c>
-      <c r="U58" s="6">
+      <c r="U58" s="20">
         <v>259</v>
       </c>
-      <c r="V58" s="6">
+      <c r="V58" s="20">
         <v>200</v>
       </c>
-      <c r="W58" s="6">
+      <c r="W58" s="20">
         <v>675</v>
       </c>
       <c r="X58" s="6"/>
@@ -54689,22 +54695,22 @@
       <c r="Q59" s="4">
         <v>0</v>
       </c>
-      <c r="R59" s="6">
+      <c r="R59" s="20">
         <v>4157</v>
       </c>
-      <c r="S59" s="6">
+      <c r="S59" s="20">
         <v>179</v>
       </c>
-      <c r="T59" s="6">
+      <c r="T59" s="20">
         <v>27</v>
       </c>
-      <c r="U59" s="6">
+      <c r="U59" s="20">
         <v>256</v>
       </c>
-      <c r="V59" s="6">
+      <c r="V59" s="20">
         <v>202</v>
       </c>
-      <c r="W59" s="6">
+      <c r="W59" s="20">
         <v>747</v>
       </c>
       <c r="X59" s="6"/>
@@ -54761,22 +54767,22 @@
       <c r="Q60" s="4">
         <v>0</v>
       </c>
-      <c r="R60" s="6">
+      <c r="R60" s="20">
         <v>4145</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="20">
         <v>179</v>
       </c>
-      <c r="T60" s="6">
+      <c r="T60" s="20">
         <v>27</v>
       </c>
-      <c r="U60" s="6">
+      <c r="U60" s="20">
         <v>256</v>
       </c>
-      <c r="V60" s="6">
+      <c r="V60" s="20">
         <v>203</v>
       </c>
-      <c r="W60" s="6">
+      <c r="W60" s="20">
         <v>747</v>
       </c>
       <c r="X60" s="6"/>
@@ -54833,22 +54839,22 @@
       <c r="Q61" s="4">
         <v>0</v>
       </c>
-      <c r="R61" s="6">
+      <c r="R61" s="20">
         <v>4145</v>
       </c>
-      <c r="S61" s="6">
+      <c r="S61" s="20">
         <v>179</v>
       </c>
-      <c r="T61" s="6">
+      <c r="T61" s="20">
         <v>27</v>
       </c>
-      <c r="U61" s="6">
+      <c r="U61" s="20">
         <v>256</v>
       </c>
-      <c r="V61" s="6">
+      <c r="V61" s="20">
         <v>203</v>
       </c>
-      <c r="W61" s="6">
+      <c r="W61" s="20">
         <v>747</v>
       </c>
       <c r="X61" s="6"/>
@@ -54905,22 +54911,22 @@
       <c r="Q62" s="4">
         <v>0</v>
       </c>
-      <c r="R62" s="6">
+      <c r="R62" s="20">
         <v>4142</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S62" s="20">
         <v>178</v>
       </c>
-      <c r="T62" s="6">
+      <c r="T62" s="20">
         <v>27</v>
       </c>
-      <c r="U62" s="6">
+      <c r="U62" s="20">
         <v>256</v>
       </c>
-      <c r="V62" s="6">
+      <c r="V62" s="20">
         <v>202</v>
       </c>
-      <c r="W62" s="6">
+      <c r="W62" s="20">
         <v>730</v>
       </c>
       <c r="X62" s="6"/>
@@ -54977,22 +54983,22 @@
       <c r="Q63" s="4">
         <v>7.0541309999999999</v>
       </c>
-      <c r="R63" s="6">
+      <c r="R63" s="20">
         <v>4169</v>
       </c>
-      <c r="S63" s="6">
+      <c r="S63" s="20">
         <v>172</v>
       </c>
-      <c r="T63" s="6">
+      <c r="T63" s="20">
         <v>27</v>
       </c>
-      <c r="U63" s="6">
+      <c r="U63" s="20">
         <v>245</v>
       </c>
-      <c r="V63" s="6">
+      <c r="V63" s="20">
         <v>190</v>
       </c>
-      <c r="W63" s="6">
+      <c r="W63" s="20">
         <v>660</v>
       </c>
       <c r="X63" s="6"/>
@@ -55049,22 +55055,22 @@
       <c r="Q64" s="4">
         <v>6.3793699999999998</v>
       </c>
-      <c r="R64" s="6">
+      <c r="R64" s="20">
         <v>4173</v>
       </c>
-      <c r="S64" s="6">
+      <c r="S64" s="20">
         <v>172</v>
       </c>
-      <c r="T64" s="6">
+      <c r="T64" s="20">
         <v>28</v>
       </c>
-      <c r="U64" s="6">
+      <c r="U64" s="20">
         <v>243</v>
       </c>
-      <c r="V64" s="6">
+      <c r="V64" s="20">
         <v>188</v>
       </c>
-      <c r="W64" s="6">
+      <c r="W64" s="20">
         <v>647</v>
       </c>
       <c r="X64" s="6"/>
@@ -55121,22 +55127,22 @@
       <c r="Q65" s="4">
         <v>8.5889249999999997</v>
       </c>
-      <c r="R65" s="6">
+      <c r="R65" s="20">
         <v>4173</v>
       </c>
-      <c r="S65" s="6">
+      <c r="S65" s="20">
         <v>172</v>
       </c>
-      <c r="T65" s="6">
+      <c r="T65" s="20">
         <v>28</v>
       </c>
-      <c r="U65" s="6">
+      <c r="U65" s="20">
         <v>243</v>
       </c>
-      <c r="V65" s="6">
+      <c r="V65" s="20">
         <v>188</v>
       </c>
-      <c r="W65" s="6">
+      <c r="W65" s="20">
         <v>647</v>
       </c>
       <c r="X65" s="6"/>
@@ -55193,22 +55199,22 @@
       <c r="Q66" s="4">
         <v>3.64697</v>
       </c>
-      <c r="R66" s="6">
+      <c r="R66" s="20">
         <v>4173</v>
       </c>
-      <c r="S66" s="6">
+      <c r="S66" s="20">
         <v>170</v>
       </c>
-      <c r="T66" s="6">
+      <c r="T66" s="20">
         <v>28</v>
       </c>
-      <c r="U66" s="6">
+      <c r="U66" s="20">
         <v>243</v>
       </c>
-      <c r="V66" s="6">
+      <c r="V66" s="20">
         <v>189</v>
       </c>
-      <c r="W66" s="6">
+      <c r="W66" s="20">
         <v>669</v>
       </c>
       <c r="X66" s="6"/>
@@ -55265,22 +55271,22 @@
       <c r="Q67" s="4">
         <v>11.395654</v>
       </c>
-      <c r="R67" s="6">
+      <c r="R67" s="20">
         <v>4169</v>
       </c>
-      <c r="S67" s="6">
+      <c r="S67" s="20">
         <v>172</v>
       </c>
-      <c r="T67" s="6">
+      <c r="T67" s="20">
         <v>27</v>
       </c>
-      <c r="U67" s="6">
+      <c r="U67" s="20">
         <v>245</v>
       </c>
-      <c r="V67" s="6">
+      <c r="V67" s="20">
         <v>190</v>
       </c>
-      <c r="W67" s="6">
+      <c r="W67" s="20">
         <v>660</v>
       </c>
       <c r="X67" s="6"/>
@@ -55337,22 +55343,22 @@
       <c r="Q68" s="4">
         <v>6.3793699999999998</v>
       </c>
-      <c r="R68" s="6">
+      <c r="R68" s="20">
         <v>4130</v>
       </c>
-      <c r="S68" s="6">
+      <c r="S68" s="20">
         <v>170</v>
       </c>
-      <c r="T68" s="6">
+      <c r="T68" s="20">
         <v>28</v>
       </c>
-      <c r="U68" s="6">
+      <c r="U68" s="20">
         <v>249</v>
       </c>
-      <c r="V68" s="6">
+      <c r="V68" s="20">
         <v>195</v>
       </c>
-      <c r="W68" s="6">
+      <c r="W68" s="20">
         <v>727</v>
       </c>
       <c r="X68" s="6"/>
@@ -55409,22 +55415,22 @@
       <c r="Q69" s="4">
         <v>14.302913999999999</v>
       </c>
-      <c r="R69" s="6">
+      <c r="R69" s="20">
         <v>4185</v>
       </c>
-      <c r="S69" s="6">
+      <c r="S69" s="20">
         <v>178</v>
       </c>
-      <c r="T69" s="6">
+      <c r="T69" s="20">
         <v>27</v>
       </c>
-      <c r="U69" s="6">
+      <c r="U69" s="20">
         <v>254</v>
       </c>
-      <c r="V69" s="6">
+      <c r="V69" s="20">
         <v>202</v>
       </c>
-      <c r="W69" s="6">
+      <c r="W69" s="20">
         <v>730</v>
       </c>
       <c r="X69" s="6"/>
@@ -55481,22 +55487,22 @@
       <c r="Q70" s="4">
         <v>5.0511520000000001</v>
       </c>
-      <c r="R70" s="6">
+      <c r="R70" s="20">
         <v>4154</v>
       </c>
-      <c r="S70" s="6">
+      <c r="S70" s="20">
         <v>178</v>
       </c>
-      <c r="T70" s="6">
+      <c r="T70" s="20">
         <v>27</v>
       </c>
-      <c r="U70" s="6">
+      <c r="U70" s="20">
         <v>256</v>
       </c>
-      <c r="V70" s="6">
+      <c r="V70" s="20">
         <v>202</v>
       </c>
-      <c r="W70" s="6">
+      <c r="W70" s="20">
         <v>730</v>
       </c>
       <c r="X70" s="6"/>
@@ -55553,22 +55559,22 @@
       <c r="Q71" s="4">
         <v>0</v>
       </c>
-      <c r="R71" s="6">
+      <c r="R71" s="20">
         <v>4154</v>
       </c>
-      <c r="S71" s="6">
+      <c r="S71" s="20">
         <v>178</v>
       </c>
-      <c r="T71" s="6">
+      <c r="T71" s="20">
         <v>27</v>
       </c>
-      <c r="U71" s="6">
+      <c r="U71" s="20">
         <v>256</v>
       </c>
-      <c r="V71" s="6">
+      <c r="V71" s="20">
         <v>202</v>
       </c>
-      <c r="W71" s="6">
+      <c r="W71" s="20">
         <v>730</v>
       </c>
       <c r="X71" s="6"/>
@@ -55625,22 +55631,22 @@
       <c r="Q72" s="4">
         <v>9.8764730000000007</v>
       </c>
-      <c r="R72" s="6">
+      <c r="R72" s="20">
         <v>4174</v>
       </c>
-      <c r="S72" s="6">
+      <c r="S72" s="20">
         <v>178</v>
       </c>
-      <c r="T72" s="6">
+      <c r="T72" s="20">
         <v>27</v>
       </c>
-      <c r="U72" s="6">
+      <c r="U72" s="20">
         <v>254</v>
       </c>
-      <c r="V72" s="6">
+      <c r="V72" s="20">
         <v>201</v>
       </c>
-      <c r="W72" s="6">
+      <c r="W72" s="20">
         <v>728</v>
       </c>
       <c r="X72" s="6"/>
@@ -55697,22 +55703,22 @@
       <c r="Q73" s="4">
         <v>11.004087999999999</v>
       </c>
-      <c r="R73" s="6">
+      <c r="R73" s="20">
         <v>4304</v>
       </c>
-      <c r="S73" s="6">
+      <c r="S73" s="20">
         <v>179</v>
       </c>
-      <c r="T73" s="6">
+      <c r="T73" s="20">
         <v>27</v>
       </c>
-      <c r="U73" s="6">
+      <c r="U73" s="20">
         <v>250</v>
       </c>
-      <c r="V73" s="6">
+      <c r="V73" s="20">
         <v>199</v>
       </c>
-      <c r="W73" s="6">
+      <c r="W73" s="20">
         <v>731</v>
       </c>
       <c r="X73" s="6"/>
@@ -55769,22 +55775,22 @@
       <c r="Q74" s="4">
         <v>3.1996009999999999</v>
       </c>
-      <c r="R74" s="6">
+      <c r="R74" s="20">
         <v>4304</v>
       </c>
-      <c r="S74" s="6">
+      <c r="S74" s="20">
         <v>181</v>
       </c>
-      <c r="T74" s="6">
+      <c r="T74" s="20">
         <v>27</v>
       </c>
-      <c r="U74" s="6">
+      <c r="U74" s="20">
         <v>250</v>
       </c>
-      <c r="V74" s="6">
+      <c r="V74" s="20">
         <v>196</v>
       </c>
-      <c r="W74" s="6">
+      <c r="W74" s="20">
         <v>664</v>
       </c>
       <c r="X74" s="6"/>
@@ -55841,22 +55847,22 @@
       <c r="Q75" s="4">
         <v>15.616129000000001</v>
       </c>
-      <c r="R75" s="6">
+      <c r="R75" s="20">
         <v>4236</v>
       </c>
-      <c r="S75" s="6">
+      <c r="S75" s="20">
         <v>179</v>
       </c>
-      <c r="T75" s="6">
+      <c r="T75" s="20">
         <v>27</v>
       </c>
-      <c r="U75" s="6">
+      <c r="U75" s="20">
         <v>252</v>
       </c>
-      <c r="V75" s="6">
+      <c r="V75" s="20">
         <v>199</v>
       </c>
-      <c r="W75" s="6">
+      <c r="W75" s="20">
         <v>731</v>
       </c>
       <c r="X75" s="6"/>
@@ -55913,22 +55919,22 @@
       <c r="Q76" s="4">
         <v>0</v>
       </c>
-      <c r="R76" s="6">
+      <c r="R76" s="20">
         <v>3744</v>
       </c>
-      <c r="S76" s="6">
+      <c r="S76" s="20">
         <v>106</v>
       </c>
-      <c r="T76" s="6">
+      <c r="T76" s="20">
         <v>36</v>
       </c>
-      <c r="U76" s="6">
+      <c r="U76" s="20">
         <v>258</v>
       </c>
-      <c r="V76" s="6">
+      <c r="V76" s="20">
         <v>203</v>
       </c>
-      <c r="W76" s="6">
+      <c r="W76" s="20">
         <v>685</v>
       </c>
       <c r="X76" s="6"/>
@@ -55985,22 +55991,22 @@
       <c r="Q77" s="4">
         <v>0</v>
       </c>
-      <c r="R77" s="6">
+      <c r="R77" s="20">
         <v>3744</v>
       </c>
-      <c r="S77" s="6">
+      <c r="S77" s="20">
         <v>106</v>
       </c>
-      <c r="T77" s="6">
+      <c r="T77" s="20">
         <v>36</v>
       </c>
-      <c r="U77" s="6">
+      <c r="U77" s="20">
         <v>258</v>
       </c>
-      <c r="V77" s="6">
+      <c r="V77" s="20">
         <v>203</v>
       </c>
-      <c r="W77" s="6">
+      <c r="W77" s="20">
         <v>685</v>
       </c>
       <c r="X77" s="6"/>
@@ -56057,22 +56063,22 @@
       <c r="Q78" s="4">
         <v>0</v>
       </c>
-      <c r="R78" s="6">
+      <c r="R78" s="20">
         <v>3744</v>
       </c>
-      <c r="S78" s="6">
+      <c r="S78" s="20">
         <v>111</v>
       </c>
-      <c r="T78" s="6">
+      <c r="T78" s="20">
         <v>35</v>
       </c>
-      <c r="U78" s="6">
+      <c r="U78" s="20">
         <v>258</v>
       </c>
-      <c r="V78" s="6">
+      <c r="V78" s="20">
         <v>204</v>
       </c>
-      <c r="W78" s="6">
+      <c r="W78" s="20">
         <v>677</v>
       </c>
       <c r="X78" s="6"/>
@@ -56129,22 +56135,22 @@
       <c r="Q79" s="4">
         <v>0</v>
       </c>
-      <c r="R79" s="6">
+      <c r="R79" s="20">
         <v>3744</v>
       </c>
-      <c r="S79" s="6">
+      <c r="S79" s="20">
         <v>109</v>
       </c>
-      <c r="T79" s="6">
+      <c r="T79" s="20">
         <v>35</v>
       </c>
-      <c r="U79" s="6">
+      <c r="U79" s="20">
         <v>258</v>
       </c>
-      <c r="V79" s="6">
+      <c r="V79" s="20">
         <v>204</v>
       </c>
-      <c r="W79" s="6">
+      <c r="W79" s="20">
         <v>669</v>
       </c>
       <c r="X79" s="6"/>
@@ -56201,22 +56207,22 @@
       <c r="Q80" s="4">
         <v>0</v>
       </c>
-      <c r="R80" s="6">
+      <c r="R80" s="20">
         <v>3921</v>
       </c>
-      <c r="S80" s="6">
+      <c r="S80" s="20">
         <v>112</v>
       </c>
-      <c r="T80" s="6">
+      <c r="T80" s="20">
         <v>36</v>
       </c>
-      <c r="U80" s="6">
+      <c r="U80" s="20">
         <v>257</v>
       </c>
-      <c r="V80" s="6">
+      <c r="V80" s="20">
         <v>203</v>
       </c>
-      <c r="W80" s="6">
+      <c r="W80" s="20">
         <v>621</v>
       </c>
       <c r="X80" s="6"/>
@@ -56273,22 +56279,22 @@
       <c r="Q81" s="4">
         <v>0</v>
       </c>
-      <c r="R81" s="6">
+      <c r="R81" s="20">
         <v>3909</v>
       </c>
-      <c r="S81" s="6">
+      <c r="S81" s="20">
         <v>112</v>
       </c>
-      <c r="T81" s="6">
+      <c r="T81" s="20">
         <v>36</v>
       </c>
-      <c r="U81" s="6">
+      <c r="U81" s="20">
         <v>257</v>
       </c>
-      <c r="V81" s="6">
+      <c r="V81" s="20">
         <v>203</v>
       </c>
-      <c r="W81" s="6">
+      <c r="W81" s="20">
         <v>621</v>
       </c>
       <c r="X81" s="6"/>
@@ -56345,22 +56351,22 @@
       <c r="Q82" s="4">
         <v>0</v>
       </c>
-      <c r="R82" s="6">
+      <c r="R82" s="20">
         <v>4077</v>
       </c>
-      <c r="S82" s="6">
+      <c r="S82" s="20">
         <v>109</v>
       </c>
-      <c r="T82" s="6">
+      <c r="T82" s="20">
         <v>37</v>
       </c>
-      <c r="U82" s="6">
+      <c r="U82" s="20">
         <v>257</v>
       </c>
-      <c r="V82" s="6">
+      <c r="V82" s="20">
         <v>203</v>
       </c>
-      <c r="W82" s="6">
+      <c r="W82" s="20">
         <v>630</v>
       </c>
       <c r="X82" s="6"/>
@@ -56417,22 +56423,22 @@
       <c r="Q83" s="4">
         <v>0</v>
       </c>
-      <c r="R83" s="6">
+      <c r="R83" s="20">
         <v>4077</v>
       </c>
-      <c r="S83" s="6">
+      <c r="S83" s="20">
         <v>112</v>
       </c>
-      <c r="T83" s="6">
+      <c r="T83" s="20">
         <v>36</v>
       </c>
-      <c r="U83" s="6">
+      <c r="U83" s="20">
         <v>257</v>
       </c>
-      <c r="V83" s="6">
+      <c r="V83" s="20">
         <v>202</v>
       </c>
-      <c r="W83" s="6">
+      <c r="W83" s="20">
         <v>630</v>
       </c>
       <c r="X83" s="6"/>
@@ -56489,22 +56495,22 @@
       <c r="Q84" s="4">
         <v>0</v>
       </c>
-      <c r="R84" s="6">
+      <c r="R84" s="20">
         <v>3977</v>
       </c>
-      <c r="S84" s="6">
+      <c r="S84" s="20">
         <v>120</v>
       </c>
-      <c r="T84" s="6">
+      <c r="T84" s="20">
         <v>35</v>
       </c>
-      <c r="U84" s="6">
+      <c r="U84" s="20">
         <v>257</v>
       </c>
-      <c r="V84" s="6">
+      <c r="V84" s="20">
         <v>203</v>
       </c>
-      <c r="W84" s="6">
+      <c r="W84" s="20">
         <v>613</v>
       </c>
       <c r="X84" s="6"/>
@@ -56561,22 +56567,22 @@
       <c r="Q85" s="4">
         <v>0</v>
       </c>
-      <c r="R85" s="6">
+      <c r="R85" s="20">
         <v>3977</v>
       </c>
-      <c r="S85" s="6">
+      <c r="S85" s="20">
         <v>120</v>
       </c>
-      <c r="T85" s="6">
+      <c r="T85" s="20">
         <v>35</v>
       </c>
-      <c r="U85" s="6">
+      <c r="U85" s="20">
         <v>257</v>
       </c>
-      <c r="V85" s="6">
+      <c r="V85" s="20">
         <v>203</v>
       </c>
-      <c r="W85" s="6">
+      <c r="W85" s="20">
         <v>613</v>
       </c>
       <c r="X85" s="6"/>
@@ -56633,22 +56639,22 @@
       <c r="Q86" s="4">
         <v>0</v>
       </c>
-      <c r="R86" s="6">
+      <c r="R86" s="20">
         <v>4000</v>
       </c>
-      <c r="S86" s="6">
+      <c r="S86" s="20">
         <v>120</v>
       </c>
-      <c r="T86" s="6">
+      <c r="T86" s="20">
         <v>35</v>
       </c>
-      <c r="U86" s="6">
+      <c r="U86" s="20">
         <v>257</v>
       </c>
-      <c r="V86" s="6">
+      <c r="V86" s="20">
         <v>203</v>
       </c>
-      <c r="W86" s="6">
+      <c r="W86" s="20">
         <v>613</v>
       </c>
       <c r="X86" s="6"/>
@@ -56705,22 +56711,22 @@
       <c r="Q87" s="4">
         <v>0</v>
       </c>
-      <c r="R87" s="6">
+      <c r="R87" s="20">
         <v>3938</v>
       </c>
-      <c r="S87" s="6">
+      <c r="S87" s="20">
         <v>126</v>
       </c>
-      <c r="T87" s="6">
+      <c r="T87" s="20">
         <v>35</v>
       </c>
-      <c r="U87" s="6">
+      <c r="U87" s="20">
         <v>257</v>
       </c>
-      <c r="V87" s="6">
+      <c r="V87" s="20">
         <v>203</v>
       </c>
-      <c r="W87" s="6">
+      <c r="W87" s="20">
         <v>657</v>
       </c>
       <c r="X87" s="6"/>
@@ -56777,22 +56783,22 @@
       <c r="Q88" s="4">
         <v>3.0357229999999999</v>
       </c>
-      <c r="R88" s="6">
+      <c r="R88" s="20">
         <v>3938</v>
       </c>
-      <c r="S88" s="6">
+      <c r="S88" s="20">
         <v>125</v>
       </c>
-      <c r="T88" s="6">
+      <c r="T88" s="20">
         <v>35</v>
       </c>
-      <c r="U88" s="6">
+      <c r="U88" s="20">
         <v>257</v>
       </c>
-      <c r="V88" s="6">
+      <c r="V88" s="20">
         <v>203</v>
       </c>
-      <c r="W88" s="6">
+      <c r="W88" s="20">
         <v>621</v>
       </c>
       <c r="X88" s="6"/>
@@ -56849,22 +56855,22 @@
       <c r="Q89" s="4">
         <v>2.8624049999999999</v>
       </c>
-      <c r="R89" s="6">
+      <c r="R89" s="20">
         <v>3722</v>
       </c>
-      <c r="S89" s="6">
+      <c r="S89" s="20">
         <v>114</v>
       </c>
-      <c r="T89" s="6">
+      <c r="T89" s="20">
         <v>35</v>
       </c>
-      <c r="U89" s="6">
+      <c r="U89" s="20">
         <v>258</v>
       </c>
-      <c r="V89" s="6">
+      <c r="V89" s="20">
         <v>204</v>
       </c>
-      <c r="W89" s="6">
+      <c r="W89" s="20">
         <v>677</v>
       </c>
       <c r="X89" s="6"/>
@@ -56921,22 +56927,22 @@
       <c r="Q90" s="4">
         <v>1.01275</v>
       </c>
-      <c r="R90" s="6">
+      <c r="R90" s="20">
         <v>3734</v>
       </c>
-      <c r="S90" s="6">
+      <c r="S90" s="20">
         <v>114</v>
       </c>
-      <c r="T90" s="6">
+      <c r="T90" s="20">
         <v>35</v>
       </c>
-      <c r="U90" s="6">
+      <c r="U90" s="20">
         <v>258</v>
       </c>
-      <c r="V90" s="6">
+      <c r="V90" s="20">
         <v>204</v>
       </c>
-      <c r="W90" s="6">
+      <c r="W90" s="20">
         <v>677</v>
       </c>
       <c r="X90" s="6"/>
@@ -56993,22 +56999,22 @@
       <c r="Q91" s="4">
         <v>0</v>
       </c>
-      <c r="R91" s="6">
+      <c r="R91" s="20">
         <v>3734</v>
       </c>
-      <c r="S91" s="6">
+      <c r="S91" s="20">
         <v>116</v>
       </c>
-      <c r="T91" s="6">
+      <c r="T91" s="20">
         <v>35</v>
       </c>
-      <c r="U91" s="6">
+      <c r="U91" s="20">
         <v>258</v>
       </c>
-      <c r="V91" s="6">
+      <c r="V91" s="20">
         <v>204</v>
       </c>
-      <c r="W91" s="6">
+      <c r="W91" s="20">
         <v>670</v>
       </c>
       <c r="X91" s="6"/>
@@ -57065,22 +57071,22 @@
       <c r="Q92" s="4">
         <v>0</v>
       </c>
-      <c r="R92" s="6">
+      <c r="R92" s="20">
         <v>3848</v>
       </c>
-      <c r="S92" s="6">
+      <c r="S92" s="20">
         <v>146</v>
       </c>
-      <c r="T92" s="6">
+      <c r="T92" s="20">
         <v>31</v>
       </c>
-      <c r="U92" s="6">
+      <c r="U92" s="20">
         <v>259</v>
       </c>
-      <c r="V92" s="6">
+      <c r="V92" s="20">
         <v>206</v>
       </c>
-      <c r="W92" s="6">
+      <c r="W92" s="20">
         <v>699</v>
       </c>
       <c r="X92" s="6"/>
@@ -57137,22 +57143,22 @@
       <c r="Q93" s="4">
         <v>0</v>
       </c>
-      <c r="R93" s="6">
+      <c r="R93" s="20">
         <v>3848</v>
       </c>
-      <c r="S93" s="6">
+      <c r="S93" s="20">
         <v>144</v>
       </c>
-      <c r="T93" s="6">
+      <c r="T93" s="20">
         <v>31</v>
       </c>
-      <c r="U93" s="6">
+      <c r="U93" s="20">
         <v>259</v>
       </c>
-      <c r="V93" s="6">
+      <c r="V93" s="20">
         <v>207</v>
       </c>
-      <c r="W93" s="6">
+      <c r="W93" s="20">
         <v>710</v>
       </c>
       <c r="X93" s="6"/>
@@ -57209,22 +57215,22 @@
       <c r="Q94" s="4">
         <v>0</v>
       </c>
-      <c r="R94" s="6">
+      <c r="R94" s="20">
         <v>3951</v>
       </c>
-      <c r="S94" s="6">
+      <c r="S94" s="20">
         <v>135</v>
       </c>
-      <c r="T94" s="6">
+      <c r="T94" s="20">
         <v>34</v>
       </c>
-      <c r="U94" s="6">
+      <c r="U94" s="20">
         <v>257</v>
       </c>
-      <c r="V94" s="6">
+      <c r="V94" s="20">
         <v>203</v>
       </c>
-      <c r="W94" s="6">
+      <c r="W94" s="20">
         <v>653</v>
       </c>
       <c r="X94" s="6"/>
@@ -57281,22 +57287,22 @@
       <c r="Q95" s="4">
         <v>3.0357229999999999</v>
       </c>
-      <c r="R95" s="6">
+      <c r="R95" s="20">
         <v>3951</v>
       </c>
-      <c r="S95" s="6">
+      <c r="S95" s="20">
         <v>136</v>
       </c>
-      <c r="T95" s="6">
+      <c r="T95" s="20">
         <v>34</v>
       </c>
-      <c r="U95" s="6">
+      <c r="U95" s="20">
         <v>257</v>
       </c>
-      <c r="V95" s="6">
+      <c r="V95" s="20">
         <v>203</v>
       </c>
-      <c r="W95" s="6">
+      <c r="W95" s="20">
         <v>661</v>
       </c>
       <c r="X95" s="6"/>
@@ -57353,22 +57359,22 @@
       <c r="Q96" s="4">
         <v>0</v>
       </c>
-      <c r="R96" s="6">
+      <c r="R96" s="20">
         <v>3969</v>
       </c>
-      <c r="S96" s="6">
+      <c r="S96" s="20">
         <v>138</v>
       </c>
-      <c r="T96" s="6">
+      <c r="T96" s="20">
         <v>34</v>
       </c>
-      <c r="U96" s="6">
+      <c r="U96" s="20">
         <v>257</v>
       </c>
-      <c r="V96" s="6">
+      <c r="V96" s="20">
         <v>203</v>
       </c>
-      <c r="W96" s="6">
+      <c r="W96" s="20">
         <v>665</v>
       </c>
       <c r="X96" s="6"/>
@@ -57425,22 +57431,22 @@
       <c r="Q97" s="4">
         <v>0</v>
       </c>
-      <c r="R97" s="6">
+      <c r="R97" s="20">
         <v>3969</v>
       </c>
-      <c r="S97" s="6">
+      <c r="S97" s="20">
         <v>139</v>
       </c>
-      <c r="T97" s="6">
+      <c r="T97" s="20">
         <v>34</v>
       </c>
-      <c r="U97" s="6">
+      <c r="U97" s="20">
         <v>257</v>
       </c>
-      <c r="V97" s="6">
+      <c r="V97" s="20">
         <v>203</v>
       </c>
-      <c r="W97" s="6">
+      <c r="W97" s="20">
         <v>654</v>
       </c>
       <c r="X97" s="6"/>
@@ -57497,22 +57503,22 @@
       <c r="Q98" s="4">
         <v>0</v>
       </c>
-      <c r="R98" s="6">
+      <c r="R98" s="20">
         <v>3947</v>
       </c>
-      <c r="S98" s="6">
+      <c r="S98" s="20">
         <v>100</v>
       </c>
-      <c r="T98" s="6">
+      <c r="T98" s="20">
         <v>37</v>
       </c>
-      <c r="U98" s="6">
+      <c r="U98" s="20">
         <v>257</v>
       </c>
-      <c r="V98" s="6">
+      <c r="V98" s="20">
         <v>202</v>
       </c>
-      <c r="W98" s="6">
+      <c r="W98" s="20">
         <v>637</v>
       </c>
       <c r="X98" s="6"/>
@@ -57569,22 +57575,22 @@
       <c r="Q99" s="4">
         <v>11.395654</v>
       </c>
-      <c r="R99" s="6">
+      <c r="R99" s="20">
         <v>3947</v>
       </c>
-      <c r="S99" s="6">
+      <c r="S99" s="20">
         <v>100</v>
       </c>
-      <c r="T99" s="6">
+      <c r="T99" s="20">
         <v>37</v>
       </c>
-      <c r="U99" s="6">
+      <c r="U99" s="20">
         <v>257</v>
       </c>
-      <c r="V99" s="6">
+      <c r="V99" s="20">
         <v>202</v>
       </c>
-      <c r="W99" s="6">
+      <c r="W99" s="20">
         <v>637</v>
       </c>
       <c r="X99" s="6"/>
@@ -57641,22 +57647,22 @@
       <c r="Q100" s="4">
         <v>0</v>
       </c>
-      <c r="R100" s="6">
+      <c r="R100" s="20">
         <v>3959</v>
       </c>
-      <c r="S100" s="6">
+      <c r="S100" s="20">
         <v>98</v>
       </c>
-      <c r="T100" s="6">
+      <c r="T100" s="20">
         <v>37</v>
       </c>
-      <c r="U100" s="6">
+      <c r="U100" s="20">
         <v>257</v>
       </c>
-      <c r="V100" s="6">
+      <c r="V100" s="20">
         <v>203</v>
       </c>
-      <c r="W100" s="6">
+      <c r="W100" s="20">
         <v>612</v>
       </c>
       <c r="X100" s="6"/>
@@ -57713,22 +57719,22 @@
       <c r="Q101" s="4">
         <v>0</v>
       </c>
-      <c r="R101" s="6">
+      <c r="R101" s="20">
         <v>4445</v>
       </c>
-      <c r="S101" s="6">
+      <c r="S101" s="20">
         <v>186</v>
       </c>
-      <c r="T101" s="6">
+      <c r="T101" s="20">
         <v>28</v>
       </c>
-      <c r="U101" s="6">
+      <c r="U101" s="20">
         <v>243</v>
       </c>
-      <c r="V101" s="6">
+      <c r="V101" s="20">
         <v>186</v>
       </c>
-      <c r="W101" s="6">
+      <c r="W101" s="20">
         <v>602</v>
       </c>
       <c r="X101" s="6"/>
@@ -57785,22 +57791,22 @@
       <c r="Q102" s="4">
         <v>10.825043000000001</v>
       </c>
-      <c r="R102" s="6">
+      <c r="R102" s="20">
         <v>4445</v>
       </c>
-      <c r="S102" s="6">
+      <c r="S102" s="20">
         <v>186</v>
       </c>
-      <c r="T102" s="6">
+      <c r="T102" s="20">
         <v>27</v>
       </c>
-      <c r="U102" s="6">
+      <c r="U102" s="20">
         <v>243</v>
       </c>
-      <c r="V102" s="6">
+      <c r="V102" s="20">
         <v>189</v>
       </c>
-      <c r="W102" s="6">
+      <c r="W102" s="20">
         <v>578</v>
       </c>
       <c r="X102" s="6"/>
@@ -57857,22 +57863,22 @@
       <c r="Q103" s="4">
         <v>0</v>
       </c>
-      <c r="R103" s="6">
+      <c r="R103" s="20">
         <v>4330</v>
       </c>
-      <c r="S103" s="6">
+      <c r="S103" s="20">
         <v>180</v>
       </c>
-      <c r="T103" s="6">
+      <c r="T103" s="20">
         <v>27</v>
       </c>
-      <c r="U103" s="6">
+      <c r="U103" s="20">
         <v>249</v>
       </c>
-      <c r="V103" s="6">
+      <c r="V103" s="20">
         <v>195</v>
       </c>
-      <c r="W103" s="6">
+      <c r="W103" s="20">
         <v>662</v>
       </c>
       <c r="X103" s="6"/>
@@ -57929,22 +57935,22 @@
       <c r="Q104" s="4">
         <v>8.9848759999999999</v>
       </c>
-      <c r="R104" s="6">
+      <c r="R104" s="20">
         <v>4315</v>
       </c>
-      <c r="S104" s="6">
+      <c r="S104" s="20">
         <v>180</v>
       </c>
-      <c r="T104" s="6">
+      <c r="T104" s="20">
         <v>27</v>
       </c>
-      <c r="U104" s="6">
+      <c r="U104" s="20">
         <v>249</v>
       </c>
-      <c r="V104" s="6">
+      <c r="V104" s="20">
         <v>195</v>
       </c>
-      <c r="W104" s="6">
+      <c r="W104" s="20">
         <v>662</v>
       </c>
       <c r="X104" s="6"/>
@@ -58001,22 +58007,22 @@
       <c r="Q105" s="4">
         <v>5.7105930000000003</v>
       </c>
-      <c r="R105" s="6">
+      <c r="R105" s="20">
         <v>4315</v>
       </c>
-      <c r="S105" s="6">
+      <c r="S105" s="20">
         <v>183</v>
       </c>
-      <c r="T105" s="6">
+      <c r="T105" s="20">
         <v>27</v>
       </c>
-      <c r="U105" s="6">
+      <c r="U105" s="20">
         <v>249</v>
       </c>
-      <c r="V105" s="6">
+      <c r="V105" s="20">
         <v>192</v>
       </c>
-      <c r="W105" s="6">
+      <c r="W105" s="20">
         <v>655</v>
       </c>
       <c r="X105" s="6"/>
@@ -58073,22 +58079,22 @@
       <c r="Q106" s="4">
         <v>0</v>
       </c>
-      <c r="R106" s="6">
+      <c r="R106" s="20">
         <v>4385</v>
       </c>
-      <c r="S106" s="6">
+      <c r="S106" s="20">
         <v>183</v>
       </c>
-      <c r="T106" s="6">
+      <c r="T106" s="20">
         <v>27</v>
       </c>
-      <c r="U106" s="6">
+      <c r="U106" s="20">
         <v>247</v>
       </c>
-      <c r="V106" s="6">
+      <c r="V106" s="20">
         <v>192</v>
       </c>
-      <c r="W106" s="6">
+      <c r="W106" s="20">
         <v>655</v>
       </c>
       <c r="X106" s="6"/>
@@ -58145,22 +58151,22 @@
       <c r="Q107" s="4">
         <v>0</v>
       </c>
-      <c r="R107" s="6">
+      <c r="R107" s="20">
         <v>4224</v>
       </c>
-      <c r="S107" s="6">
+      <c r="S107" s="20">
         <v>180</v>
       </c>
-      <c r="T107" s="6">
+      <c r="T107" s="20">
         <v>27</v>
       </c>
-      <c r="U107" s="6">
+      <c r="U107" s="20">
         <v>252</v>
       </c>
-      <c r="V107" s="6">
+      <c r="V107" s="20">
         <v>195</v>
       </c>
-      <c r="W107" s="6">
+      <c r="W107" s="20">
         <v>662</v>
       </c>
       <c r="X107" s="6"/>
@@ -58217,22 +58223,22 @@
       <c r="Q108" s="4">
         <v>4.1687390000000004</v>
       </c>
-      <c r="R108" s="6">
+      <c r="R108" s="20">
         <v>3750</v>
       </c>
-      <c r="S108" s="6">
+      <c r="S108" s="20">
         <v>144</v>
       </c>
-      <c r="T108" s="6">
+      <c r="T108" s="20">
         <v>30</v>
       </c>
-      <c r="U108" s="6">
+      <c r="U108" s="20">
         <v>238</v>
       </c>
-      <c r="V108" s="6">
+      <c r="V108" s="20">
         <v>183</v>
       </c>
-      <c r="W108" s="6">
+      <c r="W108" s="20">
         <v>587</v>
       </c>
       <c r="X108" s="6"/>
@@ -58289,22 +58295,22 @@
       <c r="Q109" s="4">
         <v>5.7105930000000003</v>
       </c>
-      <c r="R109" s="6">
+      <c r="R109" s="20">
         <v>3686</v>
       </c>
-      <c r="S109" s="6">
+      <c r="S109" s="20">
         <v>144</v>
       </c>
-      <c r="T109" s="6">
+      <c r="T109" s="20">
         <v>30</v>
       </c>
-      <c r="U109" s="6">
+      <c r="U109" s="20">
         <v>233</v>
       </c>
-      <c r="V109" s="6">
+      <c r="V109" s="20">
         <v>183</v>
       </c>
-      <c r="W109" s="6">
+      <c r="W109" s="20">
         <v>587</v>
       </c>
       <c r="X109" s="6"/>
@@ -58361,22 +58367,22 @@
       <c r="Q110" s="4">
         <v>0</v>
       </c>
-      <c r="R110" s="6">
+      <c r="R110" s="20">
         <v>3643</v>
       </c>
-      <c r="S110" s="6">
+      <c r="S110" s="20">
         <v>139</v>
       </c>
-      <c r="T110" s="6">
+      <c r="T110" s="20">
         <v>32</v>
       </c>
-      <c r="U110" s="6">
+      <c r="U110" s="20">
         <v>229</v>
       </c>
-      <c r="V110" s="6">
+      <c r="V110" s="20">
         <v>176</v>
       </c>
-      <c r="W110" s="6">
+      <c r="W110" s="20">
         <v>570</v>
       </c>
       <c r="X110" s="6"/>
@@ -58433,22 +58439,22 @@
       <c r="Q111" s="4">
         <v>0</v>
       </c>
-      <c r="R111" s="6">
+      <c r="R111" s="20">
         <v>3707</v>
       </c>
-      <c r="S111" s="6">
+      <c r="S111" s="20">
         <v>139</v>
       </c>
-      <c r="T111" s="6">
+      <c r="T111" s="20">
         <v>32</v>
       </c>
-      <c r="U111" s="6">
+      <c r="U111" s="20">
         <v>232</v>
       </c>
-      <c r="V111" s="6">
+      <c r="V111" s="20">
         <v>176</v>
       </c>
-      <c r="W111" s="6">
+      <c r="W111" s="20">
         <v>570</v>
       </c>
       <c r="X111" s="6"/>
@@ -58505,22 +58511,22 @@
       <c r="Q112" s="4">
         <v>4.0446910000000003</v>
       </c>
-      <c r="R112" s="6">
+      <c r="R112" s="20">
         <v>3622</v>
       </c>
-      <c r="S112" s="6">
+      <c r="S112" s="20">
         <v>133</v>
       </c>
-      <c r="T112" s="6">
+      <c r="T112" s="20">
         <v>34</v>
       </c>
-      <c r="U112" s="6">
+      <c r="U112" s="20">
         <v>228</v>
       </c>
-      <c r="V112" s="6">
+      <c r="V112" s="20">
         <v>173</v>
       </c>
-      <c r="W112" s="6">
+      <c r="W112" s="20">
         <v>579</v>
       </c>
       <c r="X112" s="6"/>
@@ -58577,22 +58583,22 @@
       <c r="Q113" s="4">
         <v>5.150652</v>
       </c>
-      <c r="R113" s="6">
+      <c r="R113" s="20">
         <v>3730</v>
       </c>
-      <c r="S113" s="6">
+      <c r="S113" s="20">
         <v>130</v>
       </c>
-      <c r="T113" s="6">
+      <c r="T113" s="20">
         <v>35</v>
       </c>
-      <c r="U113" s="6">
+      <c r="U113" s="20">
         <v>231</v>
       </c>
-      <c r="V113" s="6">
+      <c r="V113" s="20">
         <v>172</v>
       </c>
-      <c r="W113" s="6">
+      <c r="W113" s="20">
         <v>557</v>
       </c>
       <c r="X113" s="6"/>
@@ -58649,22 +58655,22 @@
       <c r="Q114" s="4">
         <v>0</v>
       </c>
-      <c r="R114" s="6">
+      <c r="R114" s="20">
         <v>3876</v>
       </c>
-      <c r="S114" s="6">
+      <c r="S114" s="20">
         <v>146</v>
       </c>
-      <c r="T114" s="6">
+      <c r="T114" s="20">
         <v>30</v>
       </c>
-      <c r="U114" s="6">
+      <c r="U114" s="20">
         <v>237</v>
       </c>
-      <c r="V114" s="6">
+      <c r="V114" s="20">
         <v>180</v>
       </c>
-      <c r="W114" s="6">
+      <c r="W114" s="20">
         <v>606</v>
       </c>
       <c r="X114" s="6"/>
@@ -58721,22 +58727,22 @@
       <c r="Q115" s="4">
         <v>17.879034999999998</v>
       </c>
-      <c r="R115" s="6">
+      <c r="R115" s="20">
         <v>3876</v>
       </c>
-      <c r="S115" s="6">
+      <c r="S115" s="20">
         <v>152</v>
       </c>
-      <c r="T115" s="6">
+      <c r="T115" s="20">
         <v>30</v>
       </c>
-      <c r="U115" s="6">
+      <c r="U115" s="20">
         <v>237</v>
       </c>
-      <c r="V115" s="6">
+      <c r="V115" s="20">
         <v>182</v>
       </c>
-      <c r="W115" s="6">
+      <c r="W115" s="20">
         <v>569</v>
       </c>
       <c r="X115" s="6"/>
@@ -58793,22 +58799,22 @@
       <c r="Q116" s="4">
         <v>0</v>
       </c>
-      <c r="R116" s="6">
+      <c r="R116" s="20">
         <v>4009</v>
       </c>
-      <c r="S116" s="6">
+      <c r="S116" s="20">
         <v>161</v>
       </c>
-      <c r="T116" s="6">
+      <c r="T116" s="20">
         <v>30</v>
       </c>
-      <c r="U116" s="6">
+      <c r="U116" s="20">
         <v>260</v>
       </c>
-      <c r="V116" s="6">
+      <c r="V116" s="20">
         <v>207</v>
       </c>
-      <c r="W116" s="6">
+      <c r="W116" s="20">
         <v>800</v>
       </c>
       <c r="X116" s="6"/>
@@ -58865,22 +58871,22 @@
       <c r="Q117" s="4">
         <v>0</v>
       </c>
-      <c r="R117" s="6">
+      <c r="R117" s="20">
         <v>4046</v>
       </c>
-      <c r="S117" s="6">
+      <c r="S117" s="20">
         <v>161</v>
       </c>
-      <c r="T117" s="6">
+      <c r="T117" s="20">
         <v>30</v>
       </c>
-      <c r="U117" s="6">
+      <c r="U117" s="20">
         <v>260</v>
       </c>
-      <c r="V117" s="6">
+      <c r="V117" s="20">
         <v>207</v>
       </c>
-      <c r="W117" s="6">
+      <c r="W117" s="20">
         <v>785</v>
       </c>
       <c r="X117" s="6"/>
@@ -58937,22 +58943,22 @@
       <c r="Q118" s="4">
         <v>0</v>
       </c>
-      <c r="R118" s="6">
+      <c r="R118" s="20">
         <v>4046</v>
       </c>
-      <c r="S118" s="6">
+      <c r="S118" s="20">
         <v>161</v>
       </c>
-      <c r="T118" s="6">
+      <c r="T118" s="20">
         <v>30</v>
       </c>
-      <c r="U118" s="6">
+      <c r="U118" s="20">
         <v>260</v>
       </c>
-      <c r="V118" s="6">
+      <c r="V118" s="20">
         <v>207</v>
       </c>
-      <c r="W118" s="6">
+      <c r="W118" s="20">
         <v>785</v>
       </c>
       <c r="X118" s="6"/>
@@ -59009,22 +59015,22 @@
       <c r="Q119" s="4">
         <v>13.832303</v>
       </c>
-      <c r="R119" s="6">
+      <c r="R119" s="20">
         <v>4052</v>
       </c>
-      <c r="S119" s="6">
+      <c r="S119" s="20">
         <v>165</v>
       </c>
-      <c r="T119" s="6">
+      <c r="T119" s="20">
         <v>28</v>
       </c>
-      <c r="U119" s="6">
+      <c r="U119" s="20">
         <v>250</v>
       </c>
-      <c r="V119" s="6">
+      <c r="V119" s="20">
         <v>196</v>
       </c>
-      <c r="W119" s="6">
+      <c r="W119" s="20">
         <v>745</v>
       </c>
       <c r="X119" s="6"/>
@@ -59081,22 +59087,22 @@
       <c r="Q120" s="4">
         <v>0</v>
       </c>
-      <c r="R120" s="6">
+      <c r="R120" s="20">
         <v>4049</v>
       </c>
-      <c r="S120" s="6">
+      <c r="S120" s="20">
         <v>165</v>
       </c>
-      <c r="T120" s="6">
+      <c r="T120" s="20">
         <v>28</v>
       </c>
-      <c r="U120" s="6">
+      <c r="U120" s="20">
         <v>249</v>
       </c>
-      <c r="V120" s="6">
+      <c r="V120" s="20">
         <v>194</v>
       </c>
-      <c r="W120" s="6">
+      <c r="W120" s="20">
         <v>727</v>
       </c>
       <c r="X120" s="6"/>
@@ -59153,22 +59159,22 @@
       <c r="Q121" s="4">
         <v>14.976609</v>
       </c>
-      <c r="R121" s="6">
+      <c r="R121" s="20">
         <v>4049</v>
       </c>
-      <c r="S121" s="6">
+      <c r="S121" s="20">
         <v>165</v>
       </c>
-      <c r="T121" s="6">
+      <c r="T121" s="20">
         <v>28</v>
       </c>
-      <c r="U121" s="6">
+      <c r="U121" s="20">
         <v>249</v>
       </c>
-      <c r="V121" s="6">
+      <c r="V121" s="20">
         <v>194</v>
       </c>
-      <c r="W121" s="6">
+      <c r="W121" s="20">
         <v>727</v>
       </c>
       <c r="X121" s="6"/>
@@ -59225,22 +59231,22 @@
       <c r="Q122" s="4">
         <v>0</v>
       </c>
-      <c r="R122" s="6">
+      <c r="R122" s="20">
         <v>3952</v>
       </c>
-      <c r="S122" s="6">
+      <c r="S122" s="20">
         <v>164</v>
       </c>
-      <c r="T122" s="6">
+      <c r="T122" s="20">
         <v>28</v>
       </c>
-      <c r="U122" s="6">
+      <c r="U122" s="20">
         <v>259</v>
       </c>
-      <c r="V122" s="6">
+      <c r="V122" s="20">
         <v>205</v>
       </c>
-      <c r="W122" s="6">
+      <c r="W122" s="20">
         <v>757</v>
       </c>
       <c r="X122" s="6"/>
@@ -59297,22 +59303,22 @@
       <c r="Q123" s="4">
         <v>0</v>
       </c>
-      <c r="R123" s="6">
+      <c r="R123" s="20">
         <v>3952</v>
       </c>
-      <c r="S123" s="6">
+      <c r="S123" s="20">
         <v>164</v>
       </c>
-      <c r="T123" s="6">
+      <c r="T123" s="20">
         <v>28</v>
       </c>
-      <c r="U123" s="6">
+      <c r="U123" s="20">
         <v>259</v>
       </c>
-      <c r="V123" s="6">
+      <c r="V123" s="20">
         <v>205</v>
       </c>
-      <c r="W123" s="6">
+      <c r="W123" s="20">
         <v>757</v>
       </c>
       <c r="X123" s="6"/>
@@ -59369,22 +59375,22 @@
       <c r="Q124" s="4">
         <v>0</v>
       </c>
-      <c r="R124" s="6">
+      <c r="R124" s="20">
         <v>3545</v>
       </c>
-      <c r="S124" s="6">
+      <c r="S124" s="20">
         <v>114</v>
       </c>
-      <c r="T124" s="6">
+      <c r="T124" s="20">
         <v>34</v>
       </c>
-      <c r="U124" s="6">
+      <c r="U124" s="20">
         <v>259</v>
       </c>
-      <c r="V124" s="6">
+      <c r="V124" s="20">
         <v>205</v>
       </c>
-      <c r="W124" s="6">
+      <c r="W124" s="20">
         <v>679</v>
       </c>
       <c r="X124" s="6"/>
@@ -59441,22 +59447,22 @@
       <c r="Q125" s="4">
         <v>0</v>
       </c>
-      <c r="R125" s="6">
+      <c r="R125" s="20">
         <v>3545</v>
       </c>
-      <c r="S125" s="6">
+      <c r="S125" s="20">
         <v>114</v>
       </c>
-      <c r="T125" s="6">
+      <c r="T125" s="20">
         <v>34</v>
       </c>
-      <c r="U125" s="6">
+      <c r="U125" s="20">
         <v>259</v>
       </c>
-      <c r="V125" s="6">
+      <c r="V125" s="20">
         <v>205</v>
       </c>
-      <c r="W125" s="6">
+      <c r="W125" s="20">
         <v>679</v>
       </c>
       <c r="X125" s="6"/>
@@ -59513,22 +59519,22 @@
       <c r="Q126" s="4">
         <v>0</v>
       </c>
-      <c r="R126" s="6">
+      <c r="R126" s="20">
         <v>3168</v>
       </c>
-      <c r="S126" s="6">
+      <c r="S126" s="20">
         <v>81</v>
       </c>
-      <c r="T126" s="6">
+      <c r="T126" s="20">
         <v>41</v>
       </c>
-      <c r="U126" s="6">
+      <c r="U126" s="20">
         <v>259</v>
       </c>
-      <c r="V126" s="6">
+      <c r="V126" s="20">
         <v>204</v>
       </c>
-      <c r="W126" s="6">
+      <c r="W126" s="20">
         <v>748</v>
       </c>
       <c r="X126" s="6"/>
@@ -59585,22 +59591,22 @@
       <c r="Q127" s="4">
         <v>0</v>
       </c>
-      <c r="R127" s="6">
+      <c r="R127" s="20">
         <v>3168</v>
       </c>
-      <c r="S127" s="6">
+      <c r="S127" s="20">
         <v>81</v>
       </c>
-      <c r="T127" s="6">
+      <c r="T127" s="20">
         <v>41</v>
       </c>
-      <c r="U127" s="6">
+      <c r="U127" s="20">
         <v>259</v>
       </c>
-      <c r="V127" s="6">
+      <c r="V127" s="20">
         <v>204</v>
       </c>
-      <c r="W127" s="6">
+      <c r="W127" s="20">
         <v>748</v>
       </c>
       <c r="X127" s="6"/>
@@ -59657,22 +59663,22 @@
       <c r="Q128" s="4">
         <v>0</v>
       </c>
-      <c r="R128" s="6">
+      <c r="R128" s="20">
         <v>3168</v>
       </c>
-      <c r="S128" s="6">
+      <c r="S128" s="20">
         <v>81</v>
       </c>
-      <c r="T128" s="6">
+      <c r="T128" s="20">
         <v>41</v>
       </c>
-      <c r="U128" s="6">
+      <c r="U128" s="20">
         <v>259</v>
       </c>
-      <c r="V128" s="6">
+      <c r="V128" s="20">
         <v>204</v>
       </c>
-      <c r="W128" s="6">
+      <c r="W128" s="20">
         <v>748</v>
       </c>
       <c r="X128" s="6"/>
@@ -59684,5 +59690,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>